--- a/templates/report_GZ.xlsx
+++ b/templates/report_GZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F23AB0E-E441-47D8-8D35-CB5176C9E4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B4CF3-933E-4D43-8FF5-A4CBAA086840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="124">
   <si>
     <t xml:space="preserve">Часть I. Сведения об оказываемых государственных услугах </t>
   </si>
@@ -419,6 +419,9 @@
     <t xml:space="preserve">804200О.99.0.ББ52АЗ44000
 </t>
   </si>
+  <si>
+    <t>Не более 40</t>
+  </si>
 </sst>
 </file>
 
@@ -672,7 +675,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -756,8 +759,35 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -768,47 +798,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -842,6 +848,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -894,14 +912,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,20 +921,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,11 +1267,11 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="D9" s="40" t="s">
+      <c r="B9" s="44"/>
+      <c r="D9" s="49" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -1273,54 +1279,54 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="41"/>
-      <c r="D10" s="40"/>
+      <c r="B10" s="45"/>
+      <c r="D10" s="49"/>
       <c r="E10" s="27">
         <v>506501</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="42"/>
+      <c r="B11" s="46"/>
       <c r="D11" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="41"/>
-      <c r="B12" s="41"/>
-      <c r="D12" s="40" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="45"/>
+      <c r="D12" s="49" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" s="40" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="45"/>
+      <c r="A13" s="45"/>
+      <c r="B13" s="45"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="41"/>
-      <c r="D14" s="40"/>
-      <c r="E14" s="46"/>
+      <c r="B14" s="45"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="46" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="46"/>
       <c r="D15" s="36" t="s">
         <v>108</v>
       </c>
@@ -1329,65 +1335,59 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="41"/>
-      <c r="B16" s="41"/>
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="D16" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
+      <c r="A17" s="45"/>
+      <c r="B17" s="45"/>
       <c r="D17" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41"/>
-      <c r="B18" s="41"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="45"/>
       <c r="D18" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
       <c r="D19" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="47" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="47"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="39" t="s">
+      <c r="A21" s="48" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="39"/>
+      <c r="B21" s="48"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1401,6 +1401,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1408,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44:E45"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1460,164 +1466,164 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="57" t="s">
+      <c r="A4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="58" t="s">
+      <c r="B4" s="58"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="58"/>
-      <c r="I4" s="58"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="48" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="67" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="48"/>
-      <c r="M4" s="60" t="s">
+      <c r="L4" s="67"/>
+      <c r="M4" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="61"/>
+      <c r="N4" s="62"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="63"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="64"/>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="58" t="s">
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
+      <c r="D6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
-      <c r="I6" s="58"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="62"/>
-      <c r="N6" s="63"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="59"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="64"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="65"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="60"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="65"/>
+      <c r="N7" s="66"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
+      <c r="A9" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="55"/>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="56"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="55"/>
-      <c r="C10" s="55"/>
-      <c r="D10" s="55"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
-      <c r="K10" s="55"/>
-      <c r="L10" s="55"/>
-      <c r="M10" s="55"/>
-      <c r="N10" s="56"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+      <c r="K10" s="56"/>
+      <c r="L10" s="56"/>
+      <c r="M10" s="56"/>
+      <c r="N10" s="57"/>
     </row>
     <row r="11" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="49" t="s">
+      <c r="B12" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51" t="s">
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52" t="s">
+      <c r="F12" s="70"/>
+      <c r="G12" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+      <c r="K12" s="70"/>
+      <c r="L12" s="70"/>
+      <c r="M12" s="70"/>
+      <c r="N12" s="70"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="49"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="52"/>
-      <c r="G13" s="50" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="49" t="s">
+      <c r="H13" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50" t="s">
+      <c r="I13" s="68"/>
+      <c r="J13" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="50"/>
-      <c r="L13" s="49" t="s">
+      <c r="K13" s="68"/>
+      <c r="L13" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="49" t="s">
+      <c r="M13" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="49" t="s">
+      <c r="N13" s="55" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="49"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1633,7 +1639,7 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="50"/>
+      <c r="G14" s="68"/>
       <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1646,9 +1652,9 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="49"/>
-      <c r="M14" s="50"/>
-      <c r="N14" s="49"/>
+      <c r="L14" s="55"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="55"/>
     </row>
     <row r="15" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1698,22 +1704,22 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="47" t="s">
+      <c r="A16" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="47" t="s">
+      <c r="C16" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="47" t="s">
+      <c r="D16" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="47" t="s">
+      <c r="E16" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="47" t="s">
+      <c r="F16" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -1736,12 +1742,12 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
+      <c r="A17" s="50"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
       <c r="G17" s="12" t="s">
         <v>36</v>
       </c>
@@ -1840,22 +1846,22 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="47" t="s">
+      <c r="A21" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="47" t="s">
+      <c r="C21" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="47" t="s">
+      <c r="D21" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="47" t="s">
+      <c r="E21" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="47" t="s">
+      <c r="F21" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1878,12 +1884,12 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47"/>
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="50"/>
+      <c r="B22" s="50"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
       <c r="G22" s="12" t="s">
         <v>36</v>
       </c>
@@ -1956,22 +1962,22 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="47" t="s">
+      <c r="D25" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="47" t="s">
+      <c r="E25" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="47" t="s">
+      <c r="F25" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -1994,12 +2000,12 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="47"/>
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
+      <c r="A26" s="50"/>
+      <c r="B26" s="50"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
       <c r="G26" s="12" t="s">
         <v>36</v>
       </c>
@@ -2072,22 +2078,22 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="47" t="s">
+      <c r="A29" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="47" t="s">
+      <c r="B29" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="47" t="s">
+      <c r="D29" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="47" t="s">
+      <c r="E29" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="47" t="s">
+      <c r="F29" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2110,12 +2116,12 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="47"/>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
+      <c r="A30" s="50"/>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
       <c r="G30" s="12" t="s">
         <v>36</v>
       </c>
@@ -2188,22 +2194,22 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="47" t="s">
+      <c r="A33" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="47" t="s">
+      <c r="D33" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="47" t="s">
+      <c r="F33" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2226,12 +2232,12 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+      <c r="A34" s="50"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
+      <c r="E34" s="50"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="12" t="s">
         <v>36</v>
       </c>
@@ -2330,22 +2336,22 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="50" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="47" t="s">
+      <c r="D38" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="47" t="s">
+      <c r="E38" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="47" t="s">
+      <c r="F38" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2368,12 +2374,12 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="47"/>
-      <c r="B39" s="47"/>
-      <c r="C39" s="47"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="A39" s="50"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="50"/>
+      <c r="E39" s="50"/>
+      <c r="F39" s="50"/>
       <c r="G39" s="12" t="s">
         <v>57</v>
       </c>
@@ -2420,22 +2426,22 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="47" t="s">
+      <c r="A41" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="89" t="s">
+      <c r="B41" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="47" t="s">
+      <c r="C41" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="47" t="s">
+      <c r="D41" s="50" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="47" t="s">
+      <c r="E41" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="47" t="s">
+      <c r="F41" s="50" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="21" t="s">
@@ -2458,12 +2464,12 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="47"/>
-      <c r="B42" s="90"/>
-      <c r="C42" s="47"/>
-      <c r="D42" s="47"/>
-      <c r="E42" s="47"/>
-      <c r="F42" s="47"/>
+      <c r="A42" s="50"/>
+      <c r="B42" s="52"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="50"/>
+      <c r="E42" s="50"/>
+      <c r="F42" s="50"/>
       <c r="G42" s="21" t="s">
         <v>117</v>
       </c>
@@ -2484,14 +2490,14 @@
       <c r="N42" s="5"/>
     </row>
     <row r="43" spans="1:14" ht="76.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="21" t="s">
-        <v>118</v>
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="37" t="s">
+        <v>37</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>38</v>
@@ -2499,37 +2505,25 @@
       <c r="I43" s="13">
         <v>744</v>
       </c>
-      <c r="J43" s="13">
-        <v>40</v>
-      </c>
-      <c r="K43" s="5"/>
+      <c r="J43" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="K43" s="11"/>
       <c r="L43" s="14">
         <v>0.05</v>
       </c>
-      <c r="M43" s="5"/>
-      <c r="N43" s="5"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
     </row>
     <row r="44" spans="1:14" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="47" t="s">
-        <v>31</v>
-      </c>
-      <c r="D44" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="47" t="s">
-        <v>115</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="21" t="s">
-        <v>116</v>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="37" t="s">
+        <v>41</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -2538,7 +2532,7 @@
         <v>744</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="14">
@@ -2548,14 +2542,26 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="47"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="47"/>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
+      <c r="A45" s="50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C45" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="50" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F45" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="G45" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>38</v>
@@ -2563,8 +2569,8 @@
       <c r="I45" s="13">
         <v>744</v>
       </c>
-      <c r="J45" s="13">
-        <v>80</v>
+      <c r="J45" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K45" s="5"/>
       <c r="L45" s="14">
@@ -2574,14 +2580,14 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
+      <c r="A46" s="50"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
       <c r="G46" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>38</v>
@@ -2590,7 +2596,7 @@
         <v>744</v>
       </c>
       <c r="J46" s="13">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="14">
@@ -2600,26 +2606,14 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" ht="53.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="91" t="s">
-        <v>120</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="91" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="91" t="s">
-        <v>32</v>
-      </c>
-      <c r="E47" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="F47" s="91" t="s">
-        <v>34</v>
-      </c>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="21" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>38</v>
@@ -2628,24 +2622,36 @@
         <v>744</v>
       </c>
       <c r="J47" s="13">
-        <v>10</v>
-      </c>
-      <c r="K47" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="K47" s="5"/>
       <c r="L47" s="14">
         <v>0.05</v>
       </c>
-      <c r="M47" s="11"/>
-      <c r="N47" s="11"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
     </row>
     <row r="48" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="92"/>
-      <c r="B48" s="92"/>
-      <c r="C48" s="92"/>
-      <c r="D48" s="92"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
+      <c r="A48" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B48" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="G48" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>38</v>
@@ -2653,8 +2659,8 @@
       <c r="I48" s="13">
         <v>744</v>
       </c>
-      <c r="J48" s="13" t="s">
-        <v>39</v>
+      <c r="J48" s="13">
+        <v>10</v>
       </c>
       <c r="K48" s="11"/>
       <c r="L48" s="14">
@@ -2664,14 +2670,14 @@
       <c r="N48" s="11"/>
     </row>
     <row r="49" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="11"/>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="11"/>
+      <c r="A49" s="39"/>
+      <c r="B49" s="39"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
       <c r="G49" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>38</v>
@@ -2680,7 +2686,7 @@
         <v>744</v>
       </c>
       <c r="J49" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="14">
@@ -2690,14 +2696,14 @@
       <c r="N49" s="11"/>
     </row>
     <row r="50" spans="1:14" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>38</v>
@@ -2706,14 +2712,14 @@
         <v>744</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K50" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="K50" s="11"/>
       <c r="L50" s="14">
         <v>0.05</v>
       </c>
-      <c r="M50" s="5"/>
-      <c r="N50" s="5"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="11"/>
     </row>
     <row r="51" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="5"/>
@@ -2723,7 +2729,7 @@
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
       <c r="G51" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>38</v>
@@ -2731,8 +2737,8 @@
       <c r="I51" s="13">
         <v>744</v>
       </c>
-      <c r="J51" s="13">
-        <v>80</v>
+      <c r="J51" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="K51" s="5"/>
       <c r="L51" s="14">
@@ -2742,26 +2748,14 @@
       <c r="N51" s="5"/>
     </row>
     <row r="52" spans="1:14" ht="50.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="B52" s="89" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E52" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="F52" s="47" t="s">
-        <v>34</v>
-      </c>
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>38</v>
@@ -2770,24 +2764,36 @@
         <v>744</v>
       </c>
       <c r="J52" s="13">
-        <v>10</v>
-      </c>
-      <c r="K52" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="K52" s="5"/>
       <c r="L52" s="14">
         <v>0.05</v>
       </c>
-      <c r="M52" s="11"/>
-      <c r="N52" s="11"/>
+      <c r="M52" s="5"/>
+      <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="47"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="47"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="47"/>
-      <c r="F53" s="47"/>
+      <c r="A53" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="51" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="D53" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="50" t="s">
+        <v>34</v>
+      </c>
       <c r="G53" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>38</v>
@@ -2795,8 +2801,8 @@
       <c r="I53" s="13">
         <v>744</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>39</v>
+      <c r="J53" s="13">
+        <v>10</v>
       </c>
       <c r="K53" s="11"/>
       <c r="L53" s="14">
@@ -2806,14 +2812,14 @@
       <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11"/>
-      <c r="E54" s="11"/>
-      <c r="F54" s="11"/>
+      <c r="A54" s="50"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
       <c r="G54" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>38</v>
@@ -2822,7 +2828,7 @@
         <v>744</v>
       </c>
       <c r="J54" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="14">
@@ -2831,15 +2837,15 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
-      <c r="A55" s="5"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
+    <row r="55" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
       <c r="G55" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>38</v>
@@ -2848,16 +2854,16 @@
         <v>744</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K55" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="K55" s="11"/>
       <c r="L55" s="14">
         <v>0.05</v>
       </c>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-    </row>
-    <row r="56" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A56" s="5"/>
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
@@ -2865,7 +2871,7 @@
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
       <c r="G56" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>38</v>
@@ -2873,8 +2879,8 @@
       <c r="I56" s="13">
         <v>744</v>
       </c>
-      <c r="J56" s="13">
-        <v>80</v>
+      <c r="J56" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="K56" s="5"/>
       <c r="L56" s="14">
@@ -2883,52 +2889,52 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
+    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+      <c r="A57" s="5"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I57" s="13">
+        <v>744</v>
+      </c>
+      <c r="J57" s="13">
+        <v>80</v>
+      </c>
+      <c r="K57" s="5"/>
+      <c r="L57" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M57" s="5"/>
+      <c r="N57" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K4:L7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
     <mergeCell ref="F25:F26"/>
     <mergeCell ref="A21:A22"/>
     <mergeCell ref="B21:B22"/>
@@ -2941,24 +2947,50 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K4:L7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
@@ -2972,7 +3004,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O826"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -2997,89 +3029,89 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-      <c r="I2" s="66"/>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
-      <c r="L2" s="66"/>
-      <c r="M2" s="66"/>
-      <c r="N2" s="66"/>
-      <c r="O2" s="66"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="49" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="49"/>
-      <c r="N4" s="49"/>
-      <c r="O4" s="49" t="s">
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="55" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="49" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="49" t="s">
+      <c r="H5" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49" t="s">
+      <c r="I5" s="55"/>
+      <c r="J5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49" t="s">
+      <c r="K5" s="55"/>
+      <c r="L5" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="49" t="s">
+      <c r="M5" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="49" t="s">
+      <c r="N5" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="49"/>
+      <c r="O5" s="55"/>
     </row>
     <row r="6" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="49"/>
+      <c r="G6" s="55"/>
       <c r="H6" s="9" t="s">
         <v>64</v>
       </c>
@@ -3092,10 +3124,10 @@
       <c r="K6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="49"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="49"/>
-      <c r="O6" s="49"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
+      <c r="O6" s="55"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -16931,11 +16963,11 @@
     </row>
     <row r="3" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16943,18 +16975,18 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="77" t="s">
+      <c r="K4" s="82" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="78"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="83"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="77"/>
-      <c r="L5" s="77"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="79"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="84"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="53" t="s">
@@ -16969,10 +17001,10 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="77"/>
-      <c r="L6" s="77"/>
-      <c r="M6" s="77"/>
-      <c r="N6" s="79"/>
+      <c r="K6" s="82"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="84"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" s="31"/>
@@ -16982,109 +17014,109 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="77"/>
-      <c r="L7" s="77"/>
-      <c r="M7" s="77"/>
-      <c r="N7" s="80"/>
+      <c r="K7" s="82"/>
+      <c r="L7" s="82"/>
+      <c r="M7" s="82"/>
+      <c r="N7" s="85"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="76" t="s">
+      <c r="A9" s="81" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
-      <c r="H9" s="76"/>
-      <c r="I9" s="76"/>
-      <c r="J9" s="76"/>
-      <c r="K9" s="76"/>
-      <c r="L9" s="76"/>
-      <c r="M9" s="76"/>
-      <c r="N9" s="76"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="81"/>
+      <c r="D9" s="81"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="81"/>
+      <c r="K9" s="81"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="81"/>
+      <c r="N9" s="81"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="76" t="s">
+      <c r="A10" s="81" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="76"/>
-      <c r="I10" s="76"/>
-      <c r="J10" s="76"/>
-      <c r="K10" s="76"/>
-      <c r="L10" s="76"/>
-      <c r="M10" s="76"/>
-      <c r="N10" s="76"/>
+      <c r="B10" s="81"/>
+      <c r="C10" s="81"/>
+      <c r="D10" s="81"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
     </row>
     <row r="11" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="67" t="s">
+      <c r="A12" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="70" t="s">
+      <c r="B12" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="71"/>
-      <c r="D12" s="72"/>
-      <c r="E12" s="70" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="49" t="s">
+      <c r="F12" s="77"/>
+      <c r="G12" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="49"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="68"/>
-      <c r="B13" s="73"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="73"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="67" t="s">
+      <c r="A13" s="73"/>
+      <c r="B13" s="78"/>
+      <c r="C13" s="79"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="81" t="s">
+      <c r="H13" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="82"/>
-      <c r="J13" s="81" t="s">
+      <c r="I13" s="87"/>
+      <c r="J13" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="82"/>
-      <c r="L13" s="67" t="s">
+      <c r="K13" s="87"/>
+      <c r="L13" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="67" t="s">
+      <c r="M13" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="67" t="s">
+      <c r="N13" s="72" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="69"/>
+      <c r="A14" s="74"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="69"/>
+      <c r="G14" s="74"/>
       <c r="H14" s="17" t="s">
         <v>21</v>
       </c>
@@ -17097,9 +17129,9 @@
       <c r="K14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="69"/>
-      <c r="M14" s="69"/>
-      <c r="N14" s="69"/>
+      <c r="L14" s="74"/>
+      <c r="M14" s="74"/>
+      <c r="N14" s="74"/>
     </row>
     <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -17146,12 +17178,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="67"/>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="72"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -17162,12 +17194,12 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="69"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="69"/>
-      <c r="D17" s="69"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="69"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="74"/>
+      <c r="E17" s="74"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -17178,12 +17210,12 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="67"/>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
+      <c r="A18" s="72"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="72"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -17194,12 +17226,12 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="69"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="69"/>
-      <c r="D19" s="69"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="69"/>
+      <c r="A19" s="74"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -17212,13 +17244,6 @@
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="K4:M7"/>
@@ -17235,6 +17260,13 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
@@ -17276,39 +17308,39 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
-      <c r="K2" s="76"/>
-      <c r="L2" s="76"/>
-      <c r="M2" s="76"/>
-      <c r="N2" s="76"/>
-      <c r="O2" s="76"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="81"/>
+      <c r="J2" s="81"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="67" t="s">
+      <c r="A4" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="75" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="76"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="75" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="72"/>
-      <c r="G4" s="81" t="s">
+      <c r="F4" s="77"/>
+      <c r="G4" s="86" t="s">
         <v>83</v>
       </c>
       <c r="H4" s="88"/>
@@ -17317,48 +17349,48 @@
       <c r="K4" s="88"/>
       <c r="L4" s="88"/>
       <c r="M4" s="88"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="67" t="s">
+      <c r="N4" s="87"/>
+      <c r="O4" s="72" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="67" t="s">
+      <c r="A5" s="73"/>
+      <c r="B5" s="78"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="81" t="s">
+      <c r="I5" s="87"/>
+      <c r="J5" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="82"/>
-      <c r="L5" s="67" t="s">
+      <c r="K5" s="87"/>
+      <c r="L5" s="72" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="67" t="s">
+      <c r="M5" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="67" t="s">
+      <c r="N5" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="68"/>
+      <c r="O5" s="73"/>
     </row>
     <row r="6" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="69"/>
+      <c r="A6" s="74"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="69"/>
+      <c r="G6" s="74"/>
       <c r="H6" s="17" t="s">
         <v>64</v>
       </c>
@@ -17371,10 +17403,10 @@
       <c r="K6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
-      <c r="O6" s="69"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -17424,12 +17456,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="67"/>
-      <c r="B8" s="67"/>
-      <c r="C8" s="67"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="67"/>
-      <c r="F8" s="67"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="72"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -17441,12 +17473,12 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="69"/>
-      <c r="B9" s="69"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -17458,12 +17490,12 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="67"/>
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="67"/>
-      <c r="F10" s="67"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="72"/>
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -17475,12 +17507,12 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="69"/>
-      <c r="B11" s="69"/>
-      <c r="C11" s="69"/>
-      <c r="D11" s="69"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="69"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -17496,45 +17528,45 @@
     <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="87" t="s">
+      <c r="A17" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="87"/>
-      <c r="C17" s="87"/>
-      <c r="D17" s="84" t="s">
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="91" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84" t="s">
+      <c r="E17" s="91"/>
+      <c r="F17" s="91"/>
+      <c r="G17" s="91"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="91"/>
+      <c r="J17" s="91"/>
+      <c r="K17" s="91" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
+      <c r="L17" s="91"/>
+      <c r="M17" s="91"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="83" t="s">
+      <c r="D18" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="83" t="s">
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="83"/>
-      <c r="I18" s="83"/>
-      <c r="J18" s="83"/>
-      <c r="K18" s="85" t="s">
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="85"/>
-      <c r="M18" s="85"/>
+      <c r="L18" s="93"/>
+      <c r="M18" s="93"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -17545,14 +17577,34 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="86" t="s">
+      <c r="A21" s="89" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="86"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D5"/>
@@ -17565,26 +17617,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/report_GZ.xlsx
+++ b/templates/report_GZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{052B4CF3-933E-4D43-8FF5-A4CBAA086840}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC68654F-2A6D-494F-92E0-3329650BB2C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="4140" windowWidth="34200" windowHeight="15690" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
   <si>
     <t xml:space="preserve">Часть I. Сведения об оказываемых государственных услугах </t>
   </si>
@@ -422,6 +422,13 @@
   <si>
     <t>Не более 40</t>
   </si>
+  <si>
+    <t>Физкультурно-спортивная</t>
+  </si>
+  <si>
+    <t>3.Результативность достижений учащихся:
+3.1. Доля победителей и призеров конкурсов не ниже регионального уровня в числе обучающихся, ставших заявленными участниками</t>
+  </si>
 </sst>
 </file>
 
@@ -675,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -768,6 +775,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -780,41 +808,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -849,17 +865,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -912,15 +922,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -929,6 +930,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,22 +1238,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="50" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="50" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
@@ -1267,11 +1277,11 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
+      <c r="A9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="44"/>
-      <c r="D9" s="49" t="s">
+      <c r="B9" s="41"/>
+      <c r="D9" s="44" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -1283,7 +1293,7 @@
         <v>98</v>
       </c>
       <c r="B10" s="45"/>
-      <c r="D10" s="49"/>
+      <c r="D10" s="44"/>
       <c r="E10" s="27">
         <v>506501</v>
       </c>
@@ -1301,26 +1311,26 @@
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="45"/>
       <c r="B12" s="45"/>
-      <c r="D12" s="49" t="s">
+      <c r="D12" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="47" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="45"/>
       <c r="B13" s="45"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="41"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>100</v>
       </c>
       <c r="B14" s="45"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="42"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="49"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="46" t="s">
@@ -1359,35 +1369,41 @@
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="41"/>
       <c r="D19" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="42"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="48" t="s">
+      <c r="A21" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="48"/>
+      <c r="B21" s="43"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="47" t="s">
+      <c r="A22" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1401,12 +1417,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1414,10 +1424,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q57"/>
+  <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1438,22 +1448,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="54"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="4" t="s">
@@ -1466,164 +1476,164 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="58" t="s">
+      <c r="A4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="58"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="59" t="s">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="59"/>
-      <c r="K4" s="67" t="s">
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="62"/>
+      <c r="I4" s="62"/>
+      <c r="J4" s="62"/>
+      <c r="K4" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="67"/>
-      <c r="M4" s="61" t="s">
+      <c r="L4" s="52"/>
+      <c r="M4" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="62"/>
+      <c r="N4" s="65"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="64"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
+      <c r="M5" s="66"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="58" t="s">
+      <c r="A6" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
-      <c r="D6" s="59" t="s">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
-      <c r="H6" s="59"/>
-      <c r="I6" s="59"/>
-      <c r="J6" s="59"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="64"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
+      <c r="I6" s="62"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="66"/>
+      <c r="N6" s="67"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="65"/>
-      <c r="N7" s="66"/>
+      <c r="D7" s="63"/>
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="68"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="56"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="57"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
+      <c r="K9" s="59"/>
+      <c r="L9" s="59"/>
+      <c r="M9" s="59"/>
+      <c r="N9" s="60"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="56"/>
-      <c r="C10" s="56"/>
-      <c r="D10" s="56"/>
-      <c r="E10" s="56"/>
-      <c r="F10" s="56"/>
-      <c r="G10" s="56"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
-      <c r="J10" s="56"/>
-      <c r="K10" s="56"/>
-      <c r="L10" s="56"/>
-      <c r="M10" s="56"/>
-      <c r="N10" s="57"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="60"/>
     </row>
     <row r="11" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
+      <c r="A12" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="55" t="s">
+      <c r="B12" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69" t="s">
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="70"/>
-      <c r="G12" s="70" t="s">
+      <c r="F12" s="56"/>
+      <c r="G12" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-      <c r="K12" s="70"/>
-      <c r="L12" s="70"/>
-      <c r="M12" s="70"/>
-      <c r="N12" s="70"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+      <c r="M12" s="56"/>
+      <c r="N12" s="56"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="68" t="s">
+      <c r="A13" s="53"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68" t="s">
+      <c r="I13" s="54"/>
+      <c r="J13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="68"/>
-      <c r="L13" s="55" t="s">
+      <c r="K13" s="54"/>
+      <c r="L13" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="55" t="s">
+      <c r="M13" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="55" t="s">
+      <c r="N13" s="53" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="55"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1639,7 +1649,7 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="68"/>
+      <c r="G14" s="54"/>
       <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1652,9 +1662,9 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="55"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="55"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="53"/>
     </row>
     <row r="15" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
@@ -1704,22 +1714,22 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="50" t="s">
+      <c r="C16" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="50" t="s">
+      <c r="D16" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="50" t="s">
+      <c r="E16" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="50" t="s">
+      <c r="F16" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -1742,12 +1752,12 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="50"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="12" t="s">
         <v>36</v>
       </c>
@@ -1846,22 +1856,22 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="50" t="s">
+      <c r="C21" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="50" t="s">
+      <c r="D21" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="50" t="s">
+      <c r="E21" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="50" t="s">
+      <c r="F21" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1884,12 +1894,12 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="50"/>
-      <c r="B22" s="50"/>
-      <c r="C22" s="50"/>
-      <c r="D22" s="50"/>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
       <c r="G22" s="12" t="s">
         <v>36</v>
       </c>
@@ -1962,22 +1972,22 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="51" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C25" s="50" t="s">
+      <c r="C25" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="50" t="s">
+      <c r="D25" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="50" t="s">
+      <c r="E25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="50" t="s">
+      <c r="F25" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -2000,12 +2010,12 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="50"/>
-      <c r="B26" s="50"/>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
       <c r="G26" s="12" t="s">
         <v>36</v>
       </c>
@@ -2078,22 +2088,22 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
+      <c r="A29" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="C29" s="50" t="s">
+      <c r="C29" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="50" t="s">
+      <c r="D29" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="50" t="s">
+      <c r="E29" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="50" t="s">
+      <c r="F29" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2116,12 +2126,12 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="50"/>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
       <c r="G30" s="12" t="s">
         <v>36</v>
       </c>
@@ -2194,22 +2204,22 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="50" t="s">
+      <c r="A33" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="51" t="s">
         <v>52</v>
       </c>
-      <c r="C33" s="50" t="s">
+      <c r="C33" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="50" t="s">
+      <c r="D33" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="50" t="s">
+      <c r="F33" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2232,12 +2242,12 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="50"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="50"/>
-      <c r="D34" s="50"/>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="12" t="s">
         <v>36</v>
       </c>
@@ -2336,22 +2346,22 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50" t="s">
+      <c r="A38" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C38" s="50" t="s">
+      <c r="C38" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="50" t="s">
+      <c r="D38" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="50" t="s">
+      <c r="E38" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="50" t="s">
+      <c r="F38" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="12" t="s">
@@ -2374,12 +2384,12 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="50"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
       <c r="G39" s="12" t="s">
         <v>57</v>
       </c>
@@ -2426,22 +2436,22 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="50" t="s">
+      <c r="A41" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="50" t="s">
+      <c r="C41" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D41" s="50" t="s">
+      <c r="D41" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E41" s="50" t="s">
+      <c r="E41" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="50" t="s">
+      <c r="F41" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G41" s="21" t="s">
@@ -2464,12 +2474,12 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="50"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="50"/>
-      <c r="D42" s="50"/>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
+      <c r="A42" s="51"/>
+      <c r="B42" s="71"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
       <c r="G42" s="21" t="s">
         <v>117</v>
       </c>
@@ -2542,22 +2552,22 @@
       <c r="N44" s="5"/>
     </row>
     <row r="45" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="50" t="s">
+      <c r="A45" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="51" t="s">
+      <c r="B45" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="50" t="s">
+      <c r="C45" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="50" t="s">
+      <c r="D45" s="51" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="50" t="s">
+      <c r="E45" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="50" t="s">
+      <c r="F45" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G45" s="21" t="s">
@@ -2580,12 +2590,12 @@
       <c r="N45" s="5"/>
     </row>
     <row r="46" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="50"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="50"/>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
+      <c r="A46" s="51"/>
+      <c r="B46" s="71"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="51"/>
+      <c r="E46" s="51"/>
+      <c r="F46" s="51"/>
       <c r="G46" s="21" t="s">
         <v>117</v>
       </c>
@@ -2774,22 +2784,22 @@
       <c r="N52" s="5"/>
     </row>
     <row r="53" spans="1:14" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="50" t="s">
+      <c r="A53" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="B53" s="51" t="s">
+      <c r="B53" s="70" t="s">
         <v>113</v>
       </c>
-      <c r="C53" s="50" t="s">
+      <c r="C53" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="50" t="s">
+      <c r="D53" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E53" s="50" t="s">
+      <c r="E53" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F53" s="50" t="s">
+      <c r="F53" s="51" t="s">
         <v>34</v>
       </c>
       <c r="G53" s="21" t="s">
@@ -2812,12 +2822,12 @@
       <c r="N53" s="11"/>
     </row>
     <row r="54" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="50"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="50"/>
-      <c r="D54" s="50"/>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
+      <c r="A54" s="51"/>
+      <c r="B54" s="71"/>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
       <c r="G54" s="21" t="s">
         <v>36</v>
       </c>
@@ -2889,7 +2899,7 @@
       <c r="M56" s="5"/>
       <c r="N56" s="5"/>
     </row>
-    <row r="57" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
       <c r="A57" s="5"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
@@ -2915,14 +2925,186 @@
       <c r="M57" s="5"/>
       <c r="N57" s="5"/>
     </row>
+    <row r="58" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+      <c r="A58" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="B58" s="70" t="s">
+        <v>113</v>
+      </c>
+      <c r="C58" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="G58" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="H58" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I58" s="13">
+        <v>744</v>
+      </c>
+      <c r="J58" s="13">
+        <v>10</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M58" s="11"/>
+      <c r="N58" s="11"/>
+    </row>
+    <row r="59" spans="1:14" ht="40.799999999999997" x14ac:dyDescent="0.3">
+      <c r="A59" s="51"/>
+      <c r="B59" s="71"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="13">
+        <v>744</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="K59" s="11"/>
+      <c r="L59" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M59" s="11"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" ht="61.2" x14ac:dyDescent="0.3">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="11"/>
+      <c r="E60" s="11"/>
+      <c r="F60" s="11"/>
+      <c r="G60" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I60" s="13">
+        <v>744</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M60" s="11"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" ht="51" x14ac:dyDescent="0.3">
+      <c r="A61" s="5"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="5"/>
+      <c r="G61" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="H61" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I61" s="13">
+        <v>744</v>
+      </c>
+      <c r="J61" s="13">
+        <v>80</v>
+      </c>
+      <c r="K61" s="5"/>
+      <c r="L61" s="14">
+        <v>0.05</v>
+      </c>
+      <c r="M61" s="5"/>
+      <c r="N61" s="5"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+  <mergeCells count="80">
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K4:L7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -2935,62 +3117,12 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K4:L7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
@@ -3029,89 +3161,89 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="55" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="53" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="55" t="s">
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="55" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="55" t="s">
+      <c r="I5" s="53"/>
+      <c r="J5" s="53" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55" t="s">
+      <c r="K5" s="53"/>
+      <c r="L5" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="55" t="s">
+      <c r="M5" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="55" t="s">
+      <c r="N5" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="55"/>
+      <c r="O5" s="53"/>
     </row>
     <row r="6" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="55"/>
+      <c r="G6" s="53"/>
       <c r="H6" s="9" t="s">
         <v>64</v>
       </c>
@@ -3124,10 +3256,10 @@
       <c r="K6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
-      <c r="O6" s="55"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="10">
@@ -16938,22 +17070,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="29" t="s">
@@ -16963,11 +17095,11 @@
     </row>
     <row r="3" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="82" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="81"/>
-      <c r="C4" s="81"/>
+      <c r="B4" s="82"/>
+      <c r="C4" s="82"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -16975,25 +17107,25 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="82" t="s">
+      <c r="K4" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
+      <c r="L4" s="83"/>
+      <c r="M4" s="83"/>
+      <c r="N4" s="84"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="84"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="85"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17001,10 +17133,10 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
-      <c r="N6" s="84"/>
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="85"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="D7" s="31"/>
@@ -17014,109 +17146,109 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="82"/>
-      <c r="L7" s="82"/>
-      <c r="M7" s="82"/>
-      <c r="N7" s="85"/>
+      <c r="K7" s="83"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="81" t="s">
+      <c r="A9" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="81"/>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81"/>
-      <c r="E9" s="81"/>
-      <c r="F9" s="81"/>
-      <c r="G9" s="81"/>
-      <c r="H9" s="81"/>
-      <c r="I9" s="81"/>
-      <c r="J9" s="81"/>
-      <c r="K9" s="81"/>
-      <c r="L9" s="81"/>
-      <c r="M9" s="81"/>
-      <c r="N9" s="81"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="82"/>
+      <c r="K9" s="82"/>
+      <c r="L9" s="82"/>
+      <c r="M9" s="82"/>
+      <c r="N9" s="82"/>
     </row>
     <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="81" t="s">
+      <c r="A10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="81"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="81"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="81"/>
-      <c r="J10" s="81"/>
-      <c r="K10" s="81"/>
-      <c r="L10" s="81"/>
-      <c r="M10" s="81"/>
-      <c r="N10" s="81"/>
+      <c r="B10" s="82"/>
+      <c r="C10" s="82"/>
+      <c r="D10" s="82"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="82"/>
+      <c r="I10" s="82"/>
+      <c r="J10" s="82"/>
+      <c r="K10" s="82"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="82"/>
+      <c r="N10" s="82"/>
     </row>
     <row r="11" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="72" t="s">
+      <c r="A12" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="75" t="s">
+      <c r="B12" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="77"/>
-      <c r="E12" s="75" t="s">
+      <c r="C12" s="77"/>
+      <c r="D12" s="78"/>
+      <c r="E12" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="77"/>
-      <c r="G12" s="55" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="53" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="73"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="72" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="81"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="86" t="s">
+      <c r="H13" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="87"/>
-      <c r="J13" s="86" t="s">
+      <c r="I13" s="88"/>
+      <c r="J13" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="87"/>
-      <c r="L13" s="72" t="s">
+      <c r="K13" s="88"/>
+      <c r="L13" s="73" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="72" t="s">
+      <c r="M13" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="72" t="s">
+      <c r="N13" s="73" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="74"/>
+      <c r="A14" s="75"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="74"/>
+      <c r="G14" s="75"/>
       <c r="H14" s="17" t="s">
         <v>21</v>
       </c>
@@ -17129,9 +17261,9 @@
       <c r="K14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="74"/>
-      <c r="M14" s="74"/>
-      <c r="N14" s="74"/>
+      <c r="L14" s="75"/>
+      <c r="M14" s="75"/>
+      <c r="N14" s="75"/>
     </row>
     <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
@@ -17178,12 +17310,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="72"/>
-      <c r="B16" s="72"/>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="72"/>
-      <c r="F16" s="72"/>
+      <c r="A16" s="73"/>
+      <c r="B16" s="73"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -17194,12 +17326,12 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="74"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="74"/>
-      <c r="F17" s="74"/>
+      <c r="A17" s="75"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="75"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -17210,12 +17342,12 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="72"/>
-      <c r="B18" s="72"/>
-      <c r="C18" s="72"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="A18" s="73"/>
+      <c r="B18" s="73"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -17226,12 +17358,12 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
+      <c r="A19" s="75"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -17244,6 +17376,19 @@
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="K4:M7"/>
@@ -17260,19 +17405,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17308,89 +17440,89 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81" t="s">
+      <c r="A2" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="81"/>
-      <c r="K2" s="81"/>
-      <c r="L2" s="81"/>
-      <c r="M2" s="81"/>
-      <c r="N2" s="81"/>
-      <c r="O2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B4" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="75" t="s">
+      <c r="C4" s="77"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="86" t="s">
+      <c r="F4" s="78"/>
+      <c r="G4" s="87" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="88"/>
-      <c r="I4" s="88"/>
-      <c r="J4" s="88"/>
-      <c r="K4" s="88"/>
-      <c r="L4" s="88"/>
-      <c r="M4" s="88"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="72" t="s">
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="94"/>
+      <c r="N4" s="88"/>
+      <c r="O4" s="73" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73"/>
-      <c r="B5" s="78"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="72" t="s">
+      <c r="A5" s="74"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="86" t="s">
+      <c r="H5" s="87" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="87"/>
-      <c r="J5" s="86" t="s">
+      <c r="I5" s="88"/>
+      <c r="J5" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="87"/>
-      <c r="L5" s="72" t="s">
+      <c r="K5" s="88"/>
+      <c r="L5" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="72" t="s">
+      <c r="M5" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="72" t="s">
+      <c r="N5" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="73"/>
+      <c r="O5" s="74"/>
     </row>
     <row r="6" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="74"/>
+      <c r="A6" s="75"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="74"/>
+      <c r="G6" s="75"/>
       <c r="H6" s="17" t="s">
         <v>64</v>
       </c>
@@ -17403,10 +17535,10 @@
       <c r="K6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
-      <c r="O6" s="74"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="75"/>
+      <c r="N6" s="75"/>
+      <c r="O6" s="75"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
@@ -17456,12 +17588,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="72"/>
-      <c r="B8" s="72"/>
-      <c r="C8" s="72"/>
-      <c r="D8" s="72"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
+      <c r="A8" s="73"/>
+      <c r="B8" s="73"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -17473,12 +17605,12 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="74"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
+      <c r="A9" s="75"/>
+      <c r="B9" s="75"/>
+      <c r="C9" s="75"/>
+      <c r="D9" s="75"/>
+      <c r="E9" s="75"/>
+      <c r="F9" s="75"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -17490,12 +17622,12 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="72"/>
-      <c r="B10" s="72"/>
-      <c r="C10" s="72"/>
-      <c r="D10" s="72"/>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="A10" s="73"/>
+      <c r="B10" s="73"/>
+      <c r="C10" s="73"/>
+      <c r="D10" s="73"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="73"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -17507,12 +17639,12 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
+      <c r="A11" s="75"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -17528,45 +17660,45 @@
     <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="90" t="s">
+      <c r="A17" s="93" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="90"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="91" t="s">
+      <c r="B17" s="93"/>
+      <c r="C17" s="93"/>
+      <c r="D17" s="89" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="91"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="91"/>
-      <c r="J17" s="91"/>
-      <c r="K17" s="91" t="s">
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="89"/>
+      <c r="H17" s="89"/>
+      <c r="I17" s="89"/>
+      <c r="J17" s="89"/>
+      <c r="K17" s="89" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="91"/>
-      <c r="M17" s="91"/>
+      <c r="L17" s="89"/>
+      <c r="M17" s="89"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="92" t="s">
+      <c r="D18" s="90" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="92"/>
-      <c r="F18" s="92"/>
-      <c r="G18" s="92" t="s">
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="92"/>
-      <c r="I18" s="92"/>
-      <c r="J18" s="92"/>
-      <c r="K18" s="93" t="s">
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="93"/>
-      <c r="M18" s="93"/>
+      <c r="L18" s="91"/>
+      <c r="M18" s="91"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -17577,34 +17709,14 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="89" t="s">
+      <c r="A21" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="89"/>
-      <c r="C21" s="89"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="92"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D5"/>
@@ -17617,6 +17729,26 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/report_GZ.xlsx
+++ b/templates/report_GZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C297AB2-3018-4CD2-8B6C-E135257123A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0764D-E418-44D8-B0B6-C9684F4A4C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="53370" yWindow="5040" windowWidth="25215" windowHeight="14325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30360" yWindow="1560" windowWidth="25215" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
   <si>
     <t xml:space="preserve">Часть I. Сведения об оказываемых государственных услугах </t>
   </si>
@@ -438,7 +438,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +496,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -505,7 +512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -682,11 +689,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -785,6 +807,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -797,41 +837,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -866,17 +894,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -929,15 +951,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -947,6 +960,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1245,22 +1278,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="51" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -1284,11 +1317,11 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
+      <c r="A9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="46"/>
-      <c r="D9" s="51" t="s">
+      <c r="B9" s="42"/>
+      <c r="D9" s="45" t="s">
         <v>105</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -1296,54 +1329,54 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="47" t="s">
+      <c r="A10" s="46" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="47"/>
-      <c r="D10" s="51"/>
+      <c r="B10" s="46"/>
+      <c r="D10" s="45"/>
       <c r="E10" s="27">
         <v>506501</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="48" t="s">
+      <c r="A11" s="47" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="48"/>
+      <c r="B11" s="47"/>
       <c r="D11" s="36" t="s">
         <v>106</v>
       </c>
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="47"/>
-      <c r="B12" s="47"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="D12" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="42" t="s">
+      <c r="E12" s="48" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="47"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="43"/>
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="49"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="47" t="s">
+      <c r="A14" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="B14" s="47"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="44"/>
+      <c r="B14" s="46"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="50"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="48" t="s">
+      <c r="A15" s="47" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="48"/>
+      <c r="B15" s="47"/>
       <c r="D15" s="36" t="s">
         <v>108</v>
       </c>
@@ -1352,59 +1385,65 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="47"/>
-      <c r="B16" s="47"/>
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="D16" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="47"/>
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="D17" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="47"/>
-      <c r="B18" s="47"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
       <c r="D18" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
+      <c r="A19" s="42"/>
+      <c r="B19" s="42"/>
       <c r="D19" s="36" t="s">
         <v>108</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="49"/>
+      <c r="B20" s="43"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="44" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="50"/>
+      <c r="B21" s="44"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="49" t="s">
+      <c r="A22" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1418,12 +1457,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1433,8 +1466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,22 +1488,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="59"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
@@ -1483,164 +1516,164 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="60"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="61" t="s">
+      <c r="B4" s="62"/>
+      <c r="C4" s="62"/>
+      <c r="D4" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="69" t="s">
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="69"/>
-      <c r="M4" s="63" t="s">
+      <c r="L4" s="53"/>
+      <c r="M4" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="64"/>
+      <c r="N4" s="66"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="65"/>
-      <c r="N5" s="66"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="68"/>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61" t="s">
+      <c r="B6" s="62"/>
+      <c r="C6" s="62"/>
+      <c r="D6" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="66"/>
+      <c r="E6" s="63"/>
+      <c r="F6" s="63"/>
+      <c r="G6" s="63"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="63"/>
+      <c r="J6" s="63"/>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="68"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="68"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="G7" s="64"/>
+      <c r="H7" s="64"/>
+      <c r="I7" s="64"/>
+      <c r="J7" s="64"/>
+      <c r="K7" s="53"/>
+      <c r="L7" s="53"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="58" t="s">
+      <c r="A9" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-      <c r="L9" s="58"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="59"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
+      <c r="J9" s="60"/>
+      <c r="K9" s="60"/>
+      <c r="L9" s="60"/>
+      <c r="M9" s="60"/>
+      <c r="N9" s="61"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="58" t="s">
+      <c r="A10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="59"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="70"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71" t="s">
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72" t="s">
+      <c r="F12" s="57"/>
+      <c r="G12" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="72"/>
-      <c r="K12" s="72"/>
-      <c r="L12" s="72"/>
-      <c r="M12" s="72"/>
-      <c r="N12" s="72"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="70"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="70" t="s">
+      <c r="A13" s="54"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H13" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70" t="s">
+      <c r="I13" s="55"/>
+      <c r="J13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="70"/>
-      <c r="L13" s="57" t="s">
+      <c r="K13" s="55"/>
+      <c r="L13" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="57" t="s">
+      <c r="M13" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="57" t="s">
+      <c r="N13" s="54" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1656,7 +1689,7 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="70"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1669,9 +1702,9 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="57"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="57"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55"/>
+      <c r="N14" s="54"/>
     </row>
     <row r="15" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2446,7 +2479,7 @@
       <c r="A41" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="53" t="s">
+      <c r="B41" s="71" t="s">
         <v>113</v>
       </c>
       <c r="C41" s="52" t="s">
@@ -2482,7 +2515,7 @@
     </row>
     <row r="42" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="52"/>
-      <c r="B42" s="54"/>
+      <c r="B42" s="72"/>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
       <c r="E42" s="52"/>
@@ -2558,53 +2591,53 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="52" t="s">
+    <row r="45" spans="1:14" s="100" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="96"/>
+      <c r="F45" s="96"/>
+      <c r="G45" s="97" t="s">
+        <v>42</v>
+      </c>
+      <c r="H45" s="98" t="s">
+        <v>38</v>
+      </c>
+      <c r="I45" s="98">
+        <v>744</v>
+      </c>
+      <c r="J45" s="98">
+        <v>80</v>
+      </c>
+      <c r="K45" s="96"/>
+      <c r="L45" s="99">
+        <v>0.05</v>
+      </c>
+      <c r="M45" s="96"/>
+      <c r="N45" s="96"/>
+    </row>
+    <row r="46" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="53" t="s">
+      <c r="B46" s="71" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C46" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="52" t="s">
+      <c r="D46" s="52" t="s">
         <v>114</v>
       </c>
-      <c r="E45" s="52" t="s">
+      <c r="E46" s="52" t="s">
         <v>115</v>
       </c>
-      <c r="F45" s="52" t="s">
+      <c r="F46" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="21" t="s">
+      <c r="G46" s="21" t="s">
         <v>116</v>
-      </c>
-      <c r="H45" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="I45" s="13">
-        <v>744</v>
-      </c>
-      <c r="J45" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="K45" s="5"/>
-      <c r="L45" s="14">
-        <v>0.05</v>
-      </c>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-    </row>
-    <row r="46" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
-      <c r="B46" s="54"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="21" t="s">
-        <v>117</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>38</v>
@@ -2612,8 +2645,8 @@
       <c r="I46" s="13">
         <v>744</v>
       </c>
-      <c r="J46" s="13">
-        <v>80</v>
+      <c r="J46" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K46" s="5"/>
       <c r="L46" s="14">
@@ -2622,15 +2655,15 @@
       <c r="M46" s="5"/>
       <c r="N46" s="5"/>
     </row>
-    <row r="47" spans="1:14" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
+    <row r="47" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="52"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
       <c r="G47" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>38</v>
@@ -2639,7 +2672,7 @@
         <v>744</v>
       </c>
       <c r="J47" s="13">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="K47" s="5"/>
       <c r="L47" s="14">
@@ -2648,27 +2681,15 @@
       <c r="M47" s="5"/>
       <c r="N47" s="5"/>
     </row>
-    <row r="48" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="38" t="s">
-        <v>32</v>
-      </c>
-      <c r="E48" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="F48" s="38" t="s">
-        <v>34</v>
-      </c>
+    <row r="48" spans="1:14" ht="53.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="21" t="s">
-        <v>35</v>
+        <v>118</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>38</v>
@@ -2677,24 +2698,36 @@
         <v>744</v>
       </c>
       <c r="J48" s="13">
-        <v>10</v>
-      </c>
-      <c r="K48" s="11"/>
+        <v>40</v>
+      </c>
+      <c r="K48" s="5"/>
       <c r="L48" s="14">
         <v>0.05</v>
       </c>
-      <c r="M48" s="11"/>
-      <c r="N48" s="11"/>
-    </row>
-    <row r="49" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
-      <c r="B49" s="39"/>
-      <c r="C49" s="39"/>
-      <c r="D49" s="39"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="39"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+    </row>
+    <row r="49" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="C49" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="D49" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E49" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="38" t="s">
+        <v>34</v>
+      </c>
       <c r="G49" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H49" s="13" t="s">
         <v>38</v>
@@ -2702,8 +2735,8 @@
       <c r="I49" s="13">
         <v>744</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>39</v>
+      <c r="J49" s="13">
+        <v>10</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="14">
@@ -2712,15 +2745,15 @@
       <c r="M49" s="11"/>
       <c r="N49" s="11"/>
     </row>
-    <row r="50" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="11"/>
-      <c r="D50" s="11"/>
-      <c r="E50" s="11"/>
-      <c r="F50" s="11"/>
+    <row r="50" spans="1:14" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
       <c r="G50" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>38</v>
@@ -2729,7 +2762,7 @@
         <v>744</v>
       </c>
       <c r="J50" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K50" s="11"/>
       <c r="L50" s="14">
@@ -2738,15 +2771,15 @@
       <c r="M50" s="11"/>
       <c r="N50" s="11"/>
     </row>
-    <row r="51" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+    <row r="51" spans="1:14" ht="56.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
       <c r="G51" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>38</v>
@@ -2755,16 +2788,16 @@
         <v>744</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K51" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="K51" s="11"/>
       <c r="L51" s="14">
         <v>0.05</v>
       </c>
-      <c r="M51" s="5"/>
-      <c r="N51" s="5"/>
-    </row>
-    <row r="52" spans="1:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M51" s="11"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
@@ -2772,7 +2805,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>38</v>
@@ -2780,8 +2813,8 @@
       <c r="I52" s="13">
         <v>744</v>
       </c>
-      <c r="J52" s="13">
-        <v>80</v>
+      <c r="J52" s="13" t="s">
+        <v>59</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="14">
@@ -2790,27 +2823,15 @@
       <c r="M52" s="5"/>
       <c r="N52" s="5"/>
     </row>
-    <row r="53" spans="1:14" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B53" s="53" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D53" s="52" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="52" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="52" t="s">
-        <v>34</v>
-      </c>
+    <row r="53" spans="1:14" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="5"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="21" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>38</v>
@@ -2819,24 +2840,36 @@
         <v>744</v>
       </c>
       <c r="J53" s="13">
-        <v>10</v>
-      </c>
-      <c r="K53" s="11"/>
+        <v>80</v>
+      </c>
+      <c r="K53" s="5"/>
       <c r="L53" s="14">
         <v>0.05</v>
       </c>
-      <c r="M53" s="11"/>
-      <c r="N53" s="11"/>
-    </row>
-    <row r="54" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52"/>
-      <c r="B54" s="54"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
+      <c r="M53" s="5"/>
+      <c r="N53" s="5"/>
+    </row>
+    <row r="54" spans="1:14" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B54" s="71" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="52" t="s">
+        <v>48</v>
+      </c>
+      <c r="D54" s="52" t="s">
+        <v>32</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="52" t="s">
+        <v>34</v>
+      </c>
       <c r="G54" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>38</v>
@@ -2844,8 +2877,8 @@
       <c r="I54" s="13">
         <v>744</v>
       </c>
-      <c r="J54" s="13" t="s">
-        <v>39</v>
+      <c r="J54" s="13">
+        <v>10</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="14">
@@ -2854,15 +2887,15 @@
       <c r="M54" s="11"/>
       <c r="N54" s="11"/>
     </row>
-    <row r="55" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="11"/>
-      <c r="B55" s="11"/>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="11"/>
-      <c r="F55" s="11"/>
+    <row r="55" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="52"/>
+      <c r="B55" s="72"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="52"/>
+      <c r="F55" s="52"/>
       <c r="G55" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>38</v>
@@ -2871,7 +2904,7 @@
         <v>744</v>
       </c>
       <c r="J55" s="13" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K55" s="11"/>
       <c r="L55" s="14">
@@ -2880,15 +2913,15 @@
       <c r="M55" s="11"/>
       <c r="N55" s="11"/>
     </row>
-    <row r="56" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="5"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5"/>
-      <c r="F56" s="5"/>
+    <row r="56" spans="1:14" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
       <c r="G56" s="21" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>38</v>
@@ -2897,14 +2930,14 @@
         <v>744</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="K56" s="5"/>
+        <v>43</v>
+      </c>
+      <c r="K56" s="11"/>
       <c r="L56" s="14">
         <v>0.05</v>
       </c>
-      <c r="M56" s="5"/>
-      <c r="N56" s="5"/>
+      <c r="M56" s="11"/>
+      <c r="N56" s="11"/>
     </row>
     <row r="57" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
@@ -2936,7 +2969,7 @@
       <c r="A58" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="B58" s="53" t="s">
+      <c r="B58" s="71" t="s">
         <v>113</v>
       </c>
       <c r="C58" s="52" t="s">
@@ -2972,7 +3005,7 @@
     </row>
     <row r="59" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A59" s="52"/>
-      <c r="B59" s="54"/>
+      <c r="B59" s="72"/>
       <c r="C59" s="52"/>
       <c r="D59" s="52"/>
       <c r="E59" s="52"/>
@@ -3050,12 +3083,68 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K4:L7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
     <mergeCell ref="F33:F34"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B29:B30"/>
@@ -3068,68 +3157,12 @@
     <mergeCell ref="C33:C34"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K4:L7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
@@ -3143,7 +3176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O826"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
@@ -3200,17 +3233,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="79"/>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57" t="s">
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3221,27 +3254,27 @@
       <c r="D5" s="82"/>
       <c r="E5" s="80"/>
       <c r="F5" s="82"/>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57" t="s">
+      <c r="I5" s="54"/>
+      <c r="J5" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57" t="s">
+      <c r="K5" s="54"/>
+      <c r="L5" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="M5" s="57" t="s">
+      <c r="M5" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="57"/>
+      <c r="O5" s="54"/>
     </row>
     <row r="6" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="76"/>
@@ -3250,7 +3283,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="57"/>
+      <c r="G6" s="54"/>
       <c r="H6" s="9" t="s">
         <v>64</v>
       </c>
@@ -3263,10 +3296,10 @@
       <c r="K6" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="L6" s="57"/>
-      <c r="M6" s="57"/>
-      <c r="N6" s="57"/>
-      <c r="O6" s="57"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -17119,22 +17152,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
-      <c r="N1" s="55"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="58"/>
+      <c r="M1" s="58"/>
+      <c r="N1" s="58"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="29" t="s">
@@ -17170,11 +17203,11 @@
       <c r="N5" s="86"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
+      <c r="A6" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="55"/>
-      <c r="C6" s="55"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17251,16 +17284,16 @@
         <v>79</v>
       </c>
       <c r="F12" s="79"/>
-      <c r="G12" s="57" t="s">
+      <c r="G12" s="54" t="s">
         <v>80</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="75"/>
@@ -17425,6 +17458,19 @@
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="K4:M7"/>
@@ -17441,19 +17487,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17524,12 +17557,12 @@
       <c r="G4" s="88" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="90"/>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="95"/>
+      <c r="L4" s="95"/>
+      <c r="M4" s="95"/>
       <c r="N4" s="89"/>
       <c r="O4" s="74" t="s">
         <v>84</v>
@@ -17709,45 +17742,45 @@
     <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="94" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="92"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="93" t="s">
+      <c r="B17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="90" t="s">
         <v>86</v>
       </c>
-      <c r="E17" s="93"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
-      <c r="I17" s="93"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="93" t="s">
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="L17" s="93"/>
-      <c r="M17" s="93"/>
+      <c r="L17" s="90"/>
+      <c r="M17" s="90"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="94" t="s">
+      <c r="D18" s="91" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94" t="s">
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="94"/>
-      <c r="I18" s="94"/>
-      <c r="J18" s="94"/>
-      <c r="K18" s="95" t="s">
+      <c r="H18" s="91"/>
+      <c r="I18" s="91"/>
+      <c r="J18" s="91"/>
+      <c r="K18" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="L18" s="95"/>
-      <c r="M18" s="95"/>
+      <c r="L18" s="92"/>
+      <c r="M18" s="92"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -17758,34 +17791,14 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="93" t="s">
         <v>91</v>
       </c>
-      <c r="B21" s="91"/>
-      <c r="C21" s="91"/>
+      <c r="B21" s="93"/>
+      <c r="C21" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D5"/>
@@ -17798,6 +17811,26 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/report_GZ.xlsx
+++ b/templates/report_GZ.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DB0764D-E418-44D8-B0B6-C9684F4A4C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3351A8-7A87-4799-AAEE-DE145648622E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30360" yWindow="1560" windowWidth="25215" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61905" yWindow="3675" windowWidth="25215" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="125">
   <si>
     <t xml:space="preserve">Часть I. Сведения об оказываемых государственных услугах </t>
   </si>
@@ -156,9 +156,6 @@
   </si>
   <si>
     <t>Не более 5</t>
-  </si>
-  <si>
-    <t>Не более 80</t>
   </si>
   <si>
     <t xml:space="preserve">3.2. Доля победителей и призёров конкурсов не ниже регионального уровня в числе обучающихся, ставших заявленными участниками </t>
@@ -420,9 +417,6 @@
 </t>
   </si>
   <si>
-    <t>Не более 40</t>
-  </si>
-  <si>
     <t>Физкультурно-спортивная</t>
   </si>
   <si>
@@ -438,7 +432,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -501,6 +495,11 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -705,10 +704,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -807,24 +807,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,29 +833,41 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -894,11 +902,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -951,6 +965,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -960,29 +983,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="1" xr:uid="{19177B92-3BE8-46FD-909B-6777216094D7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1279,7 +1283,7 @@
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
@@ -1288,7 +1292,7 @@
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B3" s="51"/>
       <c r="C3" s="51"/>
@@ -1297,10 +1301,10 @@
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="34" t="s">
         <v>94</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>95</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="33"/>
@@ -1309,7 +1313,7 @@
     <row r="5" spans="1:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33"/>
       <c r="B5" s="35" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="33"/>
@@ -1317,133 +1321,127 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="D9" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="53" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="D9" s="45" t="s">
-        <v>105</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="46"/>
-      <c r="D10" s="45"/>
+      <c r="B10" s="53"/>
+      <c r="D10" s="57"/>
       <c r="E10" s="27">
         <v>506501</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="47" t="s">
+      <c r="A11" s="54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" s="54"/>
+      <c r="D11" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="27"/>
+    </row>
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="D12" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="E12" s="48" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="49"/>
+    </row>
+    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="53" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="D11" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="27"/>
-    </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="46"/>
-      <c r="D12" s="45" t="s">
+      <c r="B14" s="53"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="50"/>
+    </row>
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="54"/>
+      <c r="D15" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E15" s="27" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46"/>
-      <c r="B13" s="46"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="49"/>
-    </row>
-    <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>100</v>
-      </c>
-      <c r="B14" s="46"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="50"/>
-    </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="47" t="s">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="53"/>
+      <c r="B16" s="53"/>
+      <c r="D16" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="53"/>
+      <c r="D17" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="53"/>
+      <c r="B18" s="53"/>
+      <c r="D18" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="52"/>
+      <c r="D19" s="36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>101</v>
       </c>
-      <c r="B15" s="47"/>
-      <c r="D15" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="46"/>
-      <c r="D16" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E16" s="32"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46"/>
-      <c r="B17" s="46"/>
-      <c r="D17" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="32"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="D18" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E18" s="32"/>
-    </row>
-    <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
-      <c r="B19" s="42"/>
-      <c r="D19" s="36" t="s">
-        <v>108</v>
-      </c>
-      <c r="E19" s="32"/>
-    </row>
-    <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="B20" s="55"/>
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="E20" s="32"/>
-    </row>
-    <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="44" t="s">
+      <c r="B21" s="56"/>
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="44"/>
-      <c r="E21" s="32"/>
-    </row>
-    <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="B22" s="43"/>
+      <c r="B22" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1457,6 +1455,12 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1466,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD57"/>
+    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1488,22 +1492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="59"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="62"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
@@ -1516,164 +1520,164 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="63" t="s">
+      <c r="B4" s="66"/>
+      <c r="C4" s="66"/>
+      <c r="D4" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="53" t="s">
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="75" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="53"/>
-      <c r="M4" s="65" t="s">
+      <c r="L4" s="75"/>
+      <c r="M4" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="66"/>
+      <c r="N4" s="70"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="53"/>
-      <c r="L5" s="53"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="68"/>
+      <c r="K5" s="75"/>
+      <c r="L5" s="75"/>
+      <c r="M5" s="71"/>
+      <c r="N5" s="72"/>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="62"/>
-      <c r="C6" s="62"/>
-      <c r="D6" s="63" t="s">
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="63"/>
-      <c r="F6" s="63"/>
-      <c r="G6" s="63"/>
-      <c r="H6" s="63"/>
-      <c r="I6" s="63"/>
-      <c r="J6" s="63"/>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="75"/>
+      <c r="L6" s="75"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="72"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="75"/>
+      <c r="L7" s="75"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-      <c r="J9" s="60"/>
-      <c r="K9" s="60"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="61"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="65"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="61"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
+      <c r="G10" s="64"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
+      <c r="M10" s="64"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="56" t="s">
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57" t="s">
+      <c r="F12" s="78"/>
+      <c r="G12" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="78"/>
+      <c r="M12" s="78"/>
+      <c r="N12" s="78"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="55" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="78"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="54" t="s">
+      <c r="H13" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55" t="s">
+      <c r="I13" s="76"/>
+      <c r="J13" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="55"/>
-      <c r="L13" s="54" t="s">
+      <c r="K13" s="76"/>
+      <c r="L13" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="54" t="s">
+      <c r="M13" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="54" t="s">
+      <c r="N13" s="63" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="63"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1689,7 +1693,7 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="55"/>
+      <c r="G14" s="76"/>
       <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1702,9 +1706,9 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55"/>
-      <c r="N14" s="54"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="76"/>
+      <c r="N14" s="63"/>
     </row>
     <row r="15" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -1754,22 +1758,22 @@
       <c r="Q15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="78" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52" t="s">
+      <c r="A16" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F16" s="52" t="s">
+      <c r="F16" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G16" s="12" t="s">
@@ -1792,12 +1796,12 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="1:14" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="58"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58"/>
+      <c r="F17" s="58"/>
       <c r="G17" s="12" t="s">
         <v>36</v>
       </c>
@@ -1834,7 +1838,7 @@
         <v>744</v>
       </c>
       <c r="J18" s="13" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="K18" s="11"/>
       <c r="L18" s="14">
@@ -1851,7 +1855,7 @@
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>38</v>
@@ -1860,7 +1864,7 @@
         <v>744</v>
       </c>
       <c r="J19" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19" s="5"/>
       <c r="L19" s="14">
@@ -1877,7 +1881,7 @@
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>38</v>
@@ -1896,22 +1900,22 @@
       <c r="N20" s="5"/>
     </row>
     <row r="21" spans="1:14" ht="93.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="B21" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G21" s="12" t="s">
@@ -1934,12 +1938,12 @@
       <c r="N21" s="5"/>
     </row>
     <row r="22" spans="1:14" ht="95.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="12" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +1971,7 @@
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" s="13" t="s">
         <v>38</v>
@@ -1976,7 +1980,7 @@
         <v>744</v>
       </c>
       <c r="J23" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K23" s="5"/>
       <c r="L23" s="14">
@@ -1993,7 +1997,7 @@
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H24" s="13" t="s">
         <v>38</v>
@@ -2012,22 +2016,22 @@
       <c r="N24" s="5"/>
     </row>
     <row r="25" spans="1:14" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="52" t="s">
+      <c r="A25" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D25" s="52" t="s">
+      <c r="D25" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E25" s="52" t="s">
+      <c r="E25" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="52" t="s">
+      <c r="F25" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G25" s="12" t="s">
@@ -2050,12 +2054,12 @@
       <c r="N25" s="5"/>
     </row>
     <row r="26" spans="1:14" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="52"/>
-      <c r="D26" s="52"/>
-      <c r="E26" s="52"/>
-      <c r="F26" s="52"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="12" t="s">
         <v>36</v>
       </c>
@@ -2083,7 +2087,7 @@
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" s="13" t="s">
         <v>38</v>
@@ -2092,7 +2096,7 @@
         <v>744</v>
       </c>
       <c r="J27" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="14">
@@ -2109,7 +2113,7 @@
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H28" s="13" t="s">
         <v>38</v>
@@ -2128,22 +2132,22 @@
       <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:14" ht="113.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="58" t="s">
+        <v>44</v>
+      </c>
+      <c r="C29" s="58" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="52" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>51</v>
-      </c>
-      <c r="D29" s="52" t="s">
+      <c r="D29" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E29" s="52" t="s">
+      <c r="E29" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F29" s="52" t="s">
+      <c r="F29" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G29" s="12" t="s">
@@ -2166,12 +2170,12 @@
       <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:14" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58"/>
       <c r="G30" s="12" t="s">
         <v>36</v>
       </c>
@@ -2199,7 +2203,7 @@
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" s="13" t="s">
         <v>38</v>
@@ -2208,7 +2212,7 @@
         <v>744</v>
       </c>
       <c r="J31" s="13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K31" s="5"/>
       <c r="L31" s="14">
@@ -2225,7 +2229,7 @@
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
       <c r="G32" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>38</v>
@@ -2244,22 +2248,22 @@
       <c r="N32" s="5"/>
     </row>
     <row r="33" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" s="52" t="s">
+      <c r="A33" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="C33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G33" s="12" t="s">
@@ -2282,12 +2286,12 @@
       <c r="N33" s="5"/>
     </row>
     <row r="34" spans="1:14" ht="70.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="58"/>
+      <c r="C34" s="58"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="12" t="s">
         <v>36</v>
       </c>
@@ -2324,7 +2328,7 @@
         <v>744</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K35" s="5"/>
       <c r="L35" s="14">
@@ -2341,7 +2345,7 @@
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
       <c r="G36" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H36" s="13" t="s">
         <v>38</v>
@@ -2350,7 +2354,7 @@
         <v>744</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K36" s="5"/>
       <c r="L36" s="14">
@@ -2367,7 +2371,7 @@
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
       <c r="G37" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>38</v>
@@ -2386,26 +2390,26 @@
       <c r="N37" s="5"/>
     </row>
     <row r="38" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="52" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C38" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F38" s="52" t="s">
+      <c r="F38" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>38</v>
@@ -2424,14 +2428,14 @@
       <c r="N38" s="5"/>
     </row>
     <row r="39" spans="1:14" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52"/>
-      <c r="C39" s="52"/>
-      <c r="D39" s="52"/>
-      <c r="E39" s="52"/>
-      <c r="F39" s="52"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="58"/>
       <c r="G39" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>38</v>
@@ -2440,7 +2444,7 @@
         <v>744</v>
       </c>
       <c r="J39" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K39" s="5"/>
       <c r="L39" s="14">
@@ -2457,7 +2461,7 @@
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
       <c r="G40" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>38</v>
@@ -2476,26 +2480,26 @@
       <c r="N40" s="5"/>
     </row>
     <row r="41" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B41" s="71" t="s">
+      <c r="C41" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C41" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D41" s="52" t="s">
-        <v>114</v>
-      </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F41" s="52" t="s">
+      <c r="F41" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="G41" s="21" t="s">
-        <v>116</v>
+      <c r="G41" s="42" t="s">
+        <v>35</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>38</v>
@@ -2503,8 +2507,8 @@
       <c r="I41" s="13">
         <v>744</v>
       </c>
-      <c r="J41" s="13" t="s">
-        <v>39</v>
+      <c r="J41" s="13">
+        <v>15</v>
       </c>
       <c r="K41" s="5"/>
       <c r="L41" s="14">
@@ -2514,14 +2518,14 @@
       <c r="N41" s="5"/>
     </row>
     <row r="42" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
-      <c r="B42" s="72"/>
-      <c r="C42" s="52"/>
-      <c r="D42" s="52"/>
-      <c r="E42" s="52"/>
-      <c r="F42" s="52"/>
+      <c r="A42" s="58"/>
+      <c r="B42" s="60"/>
+      <c r="C42" s="58"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="58"/>
       <c r="G42" s="21" t="s">
-        <v>117</v>
+        <v>36</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>38</v>
@@ -2529,8 +2533,8 @@
       <c r="I42" s="13">
         <v>744</v>
       </c>
-      <c r="J42" s="13">
-        <v>80</v>
+      <c r="J42" s="13" t="s">
+        <v>39</v>
       </c>
       <c r="K42" s="5"/>
       <c r="L42" s="14">
@@ -2556,7 +2560,7 @@
         <v>744</v>
       </c>
       <c r="J43" s="13" t="s">
-        <v>123</v>
+        <v>42</v>
       </c>
       <c r="K43" s="11"/>
       <c r="L43" s="14">
@@ -2573,7 +2577,7 @@
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
       <c r="G44" s="37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>38</v>
@@ -2582,7 +2586,7 @@
         <v>744</v>
       </c>
       <c r="J44" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K44" s="5"/>
       <c r="L44" s="14">
@@ -2591,53 +2595,53 @@
       <c r="M44" s="5"/>
       <c r="N44" s="5"/>
     </row>
-    <row r="45" spans="1:14" s="100" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="96"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96"/>
-      <c r="E45" s="96"/>
-      <c r="F45" s="96"/>
-      <c r="G45" s="97" t="s">
-        <v>42</v>
-      </c>
-      <c r="H45" s="98" t="s">
+    <row r="45" spans="1:14" s="47" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="43"/>
+      <c r="G45" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="H45" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="I45" s="98">
+      <c r="I45" s="45">
         <v>744</v>
       </c>
-      <c r="J45" s="98">
+      <c r="J45" s="45">
         <v>80</v>
       </c>
-      <c r="K45" s="96"/>
-      <c r="L45" s="99">
+      <c r="K45" s="43"/>
+      <c r="L45" s="46">
         <v>0.05</v>
       </c>
-      <c r="M45" s="96"/>
-      <c r="N45" s="96"/>
+      <c r="M45" s="43"/>
+      <c r="N45" s="43"/>
     </row>
     <row r="46" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="B46" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="C46" s="58" t="s">
+        <v>31</v>
+      </c>
+      <c r="D46" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="C46" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="D46" s="52" t="s">
+      <c r="E46" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="E46" s="52" t="s">
+      <c r="F46" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="21" t="s">
         <v>115</v>
-      </c>
-      <c r="F46" s="52" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="21" t="s">
-        <v>116</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>38</v>
@@ -2656,14 +2660,14 @@
       <c r="N46" s="5"/>
     </row>
     <row r="47" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
-      <c r="B47" s="72"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
+      <c r="A47" s="58"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="58"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
       <c r="G47" s="21" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>38</v>
@@ -2689,7 +2693,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>38</v>
@@ -2709,13 +2713,13 @@
     </row>
     <row r="49" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>32</v>
@@ -2736,7 +2740,7 @@
         <v>744</v>
       </c>
       <c r="J49" s="13">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="K49" s="11"/>
       <c r="L49" s="14">
@@ -2788,7 +2792,7 @@
         <v>744</v>
       </c>
       <c r="J51" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51" s="11"/>
       <c r="L51" s="14">
@@ -2805,7 +2809,7 @@
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
       <c r="G52" s="21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H52" s="13" t="s">
         <v>38</v>
@@ -2814,7 +2818,7 @@
         <v>744</v>
       </c>
       <c r="J52" s="13" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="K52" s="5"/>
       <c r="L52" s="14">
@@ -2831,7 +2835,7 @@
       <c r="E53" s="5"/>
       <c r="F53" s="5"/>
       <c r="G53" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>38</v>
@@ -2850,22 +2854,22 @@
       <c r="N53" s="5"/>
     </row>
     <row r="54" spans="1:14" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B54" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="52" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="52" t="s">
+      <c r="A54" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B54" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="D54" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F54" s="52" t="s">
+      <c r="F54" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -2878,7 +2882,7 @@
         <v>744</v>
       </c>
       <c r="J54" s="13">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="K54" s="11"/>
       <c r="L54" s="14">
@@ -2888,12 +2892,12 @@
       <c r="N54" s="11"/>
     </row>
     <row r="55" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="52"/>
-      <c r="B55" s="72"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
-      <c r="E55" s="52"/>
-      <c r="F55" s="52"/>
+      <c r="A55" s="58"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
       <c r="G55" s="21" t="s">
         <v>36</v>
       </c>
@@ -2930,7 +2934,7 @@
         <v>744</v>
       </c>
       <c r="J56" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="14">
@@ -2947,7 +2951,7 @@
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
       <c r="G57" s="21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>38</v>
@@ -2966,22 +2970,22 @@
       <c r="N57" s="5"/>
     </row>
     <row r="58" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A58" s="52" t="s">
-        <v>121</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>113</v>
-      </c>
-      <c r="C58" s="52" t="s">
-        <v>124</v>
-      </c>
-      <c r="D58" s="52" t="s">
+      <c r="A58" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58" s="59" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="58" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="F58" s="52" t="s">
+      <c r="F58" s="58" t="s">
         <v>34</v>
       </c>
       <c r="G58" s="40" t="s">
@@ -2994,7 +2998,7 @@
         <v>744</v>
       </c>
       <c r="J58" s="13">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K58" s="11"/>
       <c r="L58" s="14">
@@ -3004,12 +3008,12 @@
       <c r="N58" s="11"/>
     </row>
     <row r="59" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="52"/>
-      <c r="B59" s="72"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
-      <c r="E59" s="52"/>
-      <c r="F59" s="52"/>
+      <c r="A59" s="58"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="58"/>
+      <c r="D59" s="58"/>
+      <c r="E59" s="58"/>
+      <c r="F59" s="58"/>
       <c r="G59" s="40" t="s">
         <v>36</v>
       </c>
@@ -3037,7 +3041,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>38</v>
@@ -3046,7 +3050,7 @@
         <v>744</v>
       </c>
       <c r="J60" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60" s="11"/>
       <c r="L60" s="14">
@@ -3063,7 +3067,7 @@
       <c r="E61" s="5"/>
       <c r="F61" s="5"/>
       <c r="G61" s="40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H61" s="13" t="s">
         <v>38</v>
@@ -3083,6 +3087,70 @@
     </row>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K4:L7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="E41:E42"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="F58:F59"/>
@@ -3099,70 +3167,6 @@
     <mergeCell ref="D54:D55"/>
     <mergeCell ref="E54:E55"/>
     <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="M4:N7"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K4:L7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
@@ -3201,105 +3205,105 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="73" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="73"/>
-      <c r="M2" s="73"/>
-      <c r="N2" s="73"/>
-      <c r="O2" s="73"/>
+      <c r="A2" s="79" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="54" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="63" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="63"/>
+      <c r="K4" s="63"/>
+      <c r="L4" s="63"/>
+      <c r="M4" s="63"/>
+      <c r="N4" s="63"/>
+      <c r="O4" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="54"/>
-      <c r="J5" s="54" t="s">
+      <c r="I5" s="63"/>
+      <c r="J5" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="54"/>
-      <c r="L5" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="54" t="s">
+      <c r="K5" s="63"/>
+      <c r="L5" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="54" t="s">
+      <c r="N5" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="54"/>
+      <c r="O5" s="63"/>
     </row>
     <row r="6" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="63"/>
       <c r="H6" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
+      <c r="L6" s="63"/>
+      <c r="M6" s="63"/>
+      <c r="N6" s="63"/>
+      <c r="O6" s="63"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -3350,7 +3354,7 @@
     </row>
     <row r="8" spans="1:15" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>30</v>
@@ -3359,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>33</v>
@@ -3368,10 +3372,10 @@
         <v>34</v>
       </c>
       <c r="G8" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I8" s="16">
         <v>539</v>
@@ -3392,13 +3396,13 @@
         <v>29</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>33</v>
@@ -3407,10 +3411,10 @@
         <v>34</v>
       </c>
       <c r="G9" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H9" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I9" s="13">
         <v>539</v>
@@ -3428,16 +3432,16 @@
     </row>
     <row r="10" spans="1:15" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>48</v>
-      </c>
       <c r="D10" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>33</v>
@@ -3446,10 +3450,10 @@
         <v>34</v>
       </c>
       <c r="G10" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H10" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H10" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I10" s="13">
         <v>539</v>
@@ -3467,16 +3471,16 @@
     </row>
     <row r="11" spans="1:15" ht="110.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>51</v>
-      </c>
       <c r="D11" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>33</v>
@@ -3485,10 +3489,10 @@
         <v>34</v>
       </c>
       <c r="G11" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H11" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I11" s="13">
         <v>539</v>
@@ -3506,16 +3510,16 @@
     </row>
     <row r="12" spans="1:15" ht="114.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="16" t="s">
         <v>33</v>
@@ -3524,10 +3528,10 @@
         <v>34</v>
       </c>
       <c r="G12" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I12" s="13">
         <v>539</v>
@@ -3548,13 +3552,13 @@
         <v>29</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="16" t="s">
         <v>33</v>
@@ -3563,10 +3567,10 @@
         <v>34</v>
       </c>
       <c r="G13" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="16" t="s">
         <v>70</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>71</v>
       </c>
       <c r="I13" s="13">
         <v>539</v>
@@ -3584,16 +3588,16 @@
     </row>
     <row r="14" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>33</v>
@@ -3602,10 +3606,10 @@
         <v>34</v>
       </c>
       <c r="G14" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H14" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="H14" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="I14" s="13">
         <v>539</v>
@@ -3623,28 +3627,28 @@
     </row>
     <row r="15" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A15" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>112</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>113</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>31</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="H15" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="I15" s="13">
         <v>539</v>
@@ -3662,16 +3666,16 @@
     </row>
     <row r="16" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>33</v>
@@ -3680,10 +3684,10 @@
         <v>34</v>
       </c>
       <c r="G16" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H16" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="H16" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="I16" s="13">
         <v>539</v>
@@ -3701,16 +3705,16 @@
     </row>
     <row r="17" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B17" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C17" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E17" s="21" t="s">
         <v>33</v>
@@ -3719,10 +3723,10 @@
         <v>34</v>
       </c>
       <c r="G17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="H17" s="21" t="s">
         <v>70</v>
-      </c>
-      <c r="H17" s="21" t="s">
-        <v>71</v>
       </c>
       <c r="I17" s="13">
         <v>539</v>
@@ -3740,16 +3744,16 @@
     </row>
     <row r="18" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E18" s="41" t="s">
         <v>33</v>
@@ -3758,10 +3762,10 @@
         <v>34</v>
       </c>
       <c r="G18" s="41" t="s">
+        <v>69</v>
+      </c>
+      <c r="H18" s="41" t="s">
         <v>70</v>
-      </c>
-      <c r="H18" s="41" t="s">
-        <v>71</v>
       </c>
       <c r="I18" s="13">
         <v>539</v>
@@ -17152,36 +17156,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="58"/>
-      <c r="M1" s="58"/>
-      <c r="N1" s="58"/>
+      <c r="A1" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>74</v>
-      </c>
-      <c r="B4" s="83"/>
-      <c r="C4" s="83"/>
+      <c r="A4" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="89"/>
+      <c r="C4" s="89"/>
       <c r="D4" s="30"/>
       <c r="E4" s="30"/>
       <c r="F4" s="30"/>
@@ -17189,25 +17193,25 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="90" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="84"/>
-      <c r="M4" s="84"/>
-      <c r="N4" s="85"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="91"/>
     </row>
     <row r="5" spans="1:14" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="86"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
+      <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="58" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="58"/>
+      <c r="A6" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17215,10 +17219,10 @@
       <c r="H6" s="30"/>
       <c r="I6" s="30"/>
       <c r="J6" s="30"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="86"/>
+      <c r="K6" s="90"/>
+      <c r="L6" s="90"/>
+      <c r="M6" s="90"/>
+      <c r="N6" s="92"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D7" s="31"/>
@@ -17228,109 +17232,109 @@
       <c r="H7" s="31"/>
       <c r="I7" s="31"/>
       <c r="J7" s="31"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
-      <c r="N7" s="87"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="93"/>
     </row>
     <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="83" t="s">
+      <c r="A9" s="89" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="89"/>
+      <c r="K9" s="89"/>
+      <c r="L9" s="89"/>
+      <c r="M9" s="89"/>
+      <c r="N9" s="89"/>
+    </row>
+    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
-      <c r="J9" s="83"/>
-      <c r="K9" s="83"/>
-      <c r="L9" s="83"/>
-      <c r="M9" s="83"/>
-      <c r="N9" s="83"/>
-    </row>
-    <row r="10" spans="1:14" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83" t="s">
-        <v>77</v>
-      </c>
-      <c r="B10" s="83"/>
-      <c r="C10" s="83"/>
-      <c r="D10" s="83"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="83"/>
-      <c r="I10" s="83"/>
-      <c r="J10" s="83"/>
-      <c r="K10" s="83"/>
-      <c r="L10" s="83"/>
-      <c r="M10" s="83"/>
-      <c r="N10" s="83"/>
+      <c r="B10" s="89"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="89"/>
+      <c r="E10" s="89"/>
+      <c r="F10" s="89"/>
+      <c r="G10" s="89"/>
+      <c r="H10" s="89"/>
+      <c r="I10" s="89"/>
+      <c r="J10" s="89"/>
+      <c r="K10" s="89"/>
+      <c r="L10" s="89"/>
+      <c r="M10" s="89"/>
+      <c r="N10" s="89"/>
     </row>
     <row r="11" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:14" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="74" t="s">
+      <c r="A12" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="84"/>
+      <c r="D12" s="85"/>
+      <c r="E12" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C12" s="78"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="77" t="s">
+      <c r="F12" s="85"/>
+      <c r="G12" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="F12" s="79"/>
-      <c r="G12" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="74" t="s">
+      <c r="A13" s="81"/>
+      <c r="B13" s="86"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="80" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="88" t="s">
+      <c r="H13" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="89"/>
-      <c r="J13" s="88" t="s">
+      <c r="I13" s="95"/>
+      <c r="J13" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="89"/>
-      <c r="L13" s="74" t="s">
+      <c r="K13" s="95"/>
+      <c r="L13" s="80" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="74" t="s">
+      <c r="M13" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="74" t="s">
+      <c r="N13" s="80" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="82"/>
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
-      <c r="G14" s="76"/>
+      <c r="G14" s="82"/>
       <c r="H14" s="17" t="s">
         <v>21</v>
       </c>
@@ -17338,14 +17342,14 @@
         <v>22</v>
       </c>
       <c r="J14" s="17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="76"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="76"/>
+      <c r="L14" s="82"/>
+      <c r="M14" s="82"/>
+      <c r="N14" s="82"/>
     </row>
     <row r="15" spans="1:14" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
@@ -17392,12 +17396,12 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="74"/>
-      <c r="F16" s="74"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
       <c r="G16" s="17"/>
       <c r="H16" s="17"/>
       <c r="I16" s="17"/>
@@ -17408,12 +17412,12 @@
       <c r="N16" s="17"/>
     </row>
     <row r="17" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
+      <c r="A17" s="82"/>
+      <c r="B17" s="82"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
       <c r="G17" s="17"/>
       <c r="H17" s="17"/>
       <c r="I17" s="17"/>
@@ -17424,12 +17428,12 @@
       <c r="N17" s="17"/>
     </row>
     <row r="18" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="80"/>
       <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="17"/>
@@ -17440,12 +17444,12 @@
       <c r="N18" s="17"/>
     </row>
     <row r="19" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
+      <c r="A19" s="82"/>
+      <c r="B19" s="82"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="82"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="17"/>
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
@@ -17458,19 +17462,6 @@
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="K4:M7"/>
@@ -17487,6 +17478,19 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17522,105 +17526,105 @@
   <sheetData>
     <row r="1" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83"/>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
+      <c r="A2" s="89" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="89"/>
+      <c r="I2" s="89"/>
+      <c r="J2" s="89"/>
+      <c r="K2" s="89"/>
+      <c r="L2" s="89"/>
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="89"/>
     </row>
     <row r="3" spans="1:15" ht="9" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="84"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="83" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="77" t="s">
-        <v>79</v>
-      </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="88" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="94" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="95"/>
+      <c r="O4" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="95"/>
-      <c r="I4" s="95"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="89"/>
-      <c r="O4" s="74" t="s">
-        <v>84</v>
-      </c>
     </row>
     <row r="5" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
-      <c r="B5" s="80"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="88" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="89"/>
-      <c r="J5" s="88" t="s">
+      <c r="A5" s="81"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="I5" s="95"/>
+      <c r="J5" s="94" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="89"/>
-      <c r="L5" s="74" t="s">
-        <v>67</v>
-      </c>
-      <c r="M5" s="74" t="s">
+      <c r="K5" s="95"/>
+      <c r="L5" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="80" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="80" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="75"/>
+      <c r="O5" s="81"/>
     </row>
     <row r="6" spans="1:15" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="82"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="76"/>
+      <c r="G6" s="82"/>
       <c r="H6" s="17" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="K6" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="L6" s="76"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
+      <c r="L6" s="82"/>
+      <c r="M6" s="82"/>
+      <c r="N6" s="82"/>
+      <c r="O6" s="82"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
@@ -17670,12 +17674,12 @@
       </c>
     </row>
     <row r="8" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="74"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
+      <c r="A8" s="80"/>
+      <c r="B8" s="80"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
       <c r="G8" s="20"/>
       <c r="H8" s="20"/>
       <c r="I8" s="20"/>
@@ -17687,12 +17691,12 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
+      <c r="A9" s="82"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="20"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -17704,12 +17708,12 @@
       <c r="O9" s="20"/>
     </row>
     <row r="10" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="74"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
+      <c r="A10" s="80"/>
+      <c r="B10" s="80"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -17721,12 +17725,12 @@
       <c r="O10" s="20"/>
     </row>
     <row r="11" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
+      <c r="A11" s="82"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="20"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -17742,45 +17746,45 @@
     <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="98" t="s">
+        <v>84</v>
+      </c>
+      <c r="B17" s="98"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="B17" s="94"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="90" t="s">
-        <v>86</v>
-      </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="90"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="90"/>
-      <c r="J17" s="90"/>
-      <c r="K17" s="90" t="s">
-        <v>90</v>
-      </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="90"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="99"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="99" t="s">
+        <v>89</v>
+      </c>
+      <c r="L17" s="99"/>
+      <c r="M17" s="99"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="100" t="s">
+        <v>86</v>
+      </c>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="91" t="s">
+      <c r="H18" s="100"/>
+      <c r="I18" s="100"/>
+      <c r="J18" s="100"/>
+      <c r="K18" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="H18" s="91"/>
-      <c r="I18" s="91"/>
-      <c r="J18" s="91"/>
-      <c r="K18" s="92" t="s">
-        <v>89</v>
-      </c>
-      <c r="L18" s="92"/>
-      <c r="M18" s="92"/>
+      <c r="L18" s="101"/>
+      <c r="M18" s="101"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -17791,14 +17795,34 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="93"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="97" t="s">
+        <v>90</v>
+      </c>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D5"/>
@@ -17811,26 +17835,6 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/templates/report_GZ.xlsx
+++ b/templates/report_GZ.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3351A8-7A87-4799-AAEE-DE145648622E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7624791-4703-490C-A39C-56325306B5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61905" yWindow="3675" windowWidth="25215" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="52830" yWindow="3855" windowWidth="25215" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Титульный лист" sheetId="1" r:id="rId1"/>
@@ -400,9 +400,6 @@
     <t>2. Регистрируемый средний уровень удовлетворенности родителей (законных представителей) обучающихся качеством услуги согласно данным анкетирования</t>
   </si>
   <si>
-    <t>3. Доля обучающихся, принявших участие в утвержденном Минпросвещения России перечне олимпиад и иных интеллектуальных и (или) творческих конкурсов, мероприятий, в общем числе обучающихся</t>
-  </si>
-  <si>
     <t>Естественно-научная</t>
   </si>
   <si>
@@ -426,6 +423,9 @@
   <si>
     <t xml:space="preserve">804200О.99.0.ББ52АЗ20000
 </t>
+  </si>
+  <si>
+    <t>3. Доля обучающихся, принявших участие в мероприятиях не ниже регионального уровня, в общем числе обучающихся</t>
   </si>
 </sst>
 </file>
@@ -821,6 +821,24 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -833,41 +851,29 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -902,17 +908,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -965,15 +965,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -982,6 +973,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1282,22 +1282,22 @@
   <sheetData>
     <row r="1" spans="1:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
     </row>
     <row r="4" spans="1:5" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="29" t="s">
@@ -1321,11 +1321,11 @@
     </row>
     <row r="6" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="9" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="52"/>
-      <c r="D9" s="57" t="s">
+      <c r="B9" s="48"/>
+      <c r="D9" s="51" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="27" t="s">
@@ -1333,54 +1333,54 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="52" t="s">
         <v>97</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="D10" s="57"/>
+      <c r="B10" s="52"/>
+      <c r="D10" s="51"/>
       <c r="E10" s="27">
         <v>506501</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="53" t="s">
         <v>98</v>
       </c>
-      <c r="B11" s="54"/>
+      <c r="B11" s="53"/>
       <c r="D11" s="36" t="s">
         <v>105</v>
       </c>
       <c r="E11" s="27"/>
     </row>
     <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="D12" s="57" t="s">
+      <c r="A12" s="52"/>
+      <c r="B12" s="52"/>
+      <c r="D12" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="E12" s="48" t="s">
+      <c r="E12" s="54" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="49"/>
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="53" t="s">
+      <c r="A14" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="50"/>
+      <c r="B14" s="52"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="56"/>
     </row>
     <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="53" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="54"/>
+      <c r="B15" s="53"/>
       <c r="D15" s="36" t="s">
         <v>107</v>
       </c>
@@ -1389,59 +1389,65 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="52"/>
+      <c r="B16" s="52"/>
       <c r="D16" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E16" s="32"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="53"/>
-      <c r="B17" s="53"/>
+      <c r="A17" s="52"/>
+      <c r="B17" s="52"/>
       <c r="D17" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E17" s="32"/>
     </row>
     <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="52"/>
+      <c r="B18" s="52"/>
       <c r="D18" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E18" s="32"/>
     </row>
     <row r="19" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
       <c r="D19" s="36" t="s">
         <v>107</v>
       </c>
       <c r="E19" s="32"/>
     </row>
     <row r="20" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="49" t="s">
         <v>101</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="49"/>
       <c r="E20" s="32"/>
     </row>
     <row r="21" spans="1:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="50" t="s">
         <v>102</v>
       </c>
-      <c r="B21" s="56"/>
+      <c r="B21" s="50"/>
       <c r="E21" s="32"/>
     </row>
     <row r="22" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="A22" s="49" t="s">
         <v>103</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A21:B21"/>
@@ -1455,12 +1461,6 @@
     <mergeCell ref="A17:B17"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A12:B12"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1470,8 +1470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D40" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46:F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1492,22 +1492,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="62"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="65"/>
     </row>
     <row r="2" spans="1:17" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="4" t="s">
@@ -1520,164 +1520,164 @@
       <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:17" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66"/>
-      <c r="D4" s="67" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="75" t="s">
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="75"/>
-      <c r="M4" s="69" t="s">
+      <c r="L4" s="59"/>
+      <c r="M4" s="71" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="70"/>
+      <c r="N4" s="72"/>
     </row>
     <row r="5" spans="1:17" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="71"/>
-      <c r="N5" s="72"/>
+      <c r="K5" s="59"/>
+      <c r="L5" s="59"/>
+      <c r="M5" s="73"/>
+      <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:17" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="66" t="s">
+      <c r="A6" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="67" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="72"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="69"/>
+      <c r="H6" s="69"/>
+      <c r="I6" s="69"/>
+      <c r="J6" s="69"/>
+      <c r="K6" s="59"/>
+      <c r="L6" s="59"/>
+      <c r="M6" s="73"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="1:17" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
-      <c r="G7" s="68"/>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
-      <c r="J7" s="68"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="73"/>
-      <c r="N7" s="74"/>
+      <c r="D7" s="70"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="59"/>
+      <c r="L7" s="59"/>
+      <c r="M7" s="75"/>
+      <c r="N7" s="76"/>
     </row>
     <row r="8" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N8" s="1"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+      <c r="A9" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="65"/>
+      <c r="B9" s="66"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="66"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="66"/>
+      <c r="J9" s="66"/>
+      <c r="K9" s="66"/>
+      <c r="L9" s="66"/>
+      <c r="M9" s="66"/>
+      <c r="N9" s="67"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+      <c r="A10" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="64"/>
-      <c r="F10" s="64"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="65"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="66"/>
+      <c r="H10" s="66"/>
+      <c r="I10" s="66"/>
+      <c r="J10" s="66"/>
+      <c r="K10" s="66"/>
+      <c r="L10" s="66"/>
+      <c r="M10" s="66"/>
+      <c r="N10" s="67"/>
     </row>
     <row r="11" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="63" t="s">
+      <c r="A12" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77" t="s">
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="F12" s="78"/>
-      <c r="G12" s="78" t="s">
+      <c r="F12" s="63"/>
+      <c r="G12" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="78"/>
-      <c r="I12" s="78"/>
-      <c r="J12" s="78"/>
-      <c r="K12" s="78"/>
-      <c r="L12" s="78"/>
-      <c r="M12" s="78"/>
-      <c r="N12" s="78"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="63"/>
     </row>
     <row r="13" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="78"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76" t="s">
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="63" t="s">
+      <c r="H13" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="76"/>
-      <c r="J13" s="76" t="s">
+      <c r="I13" s="61"/>
+      <c r="J13" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="K13" s="76"/>
-      <c r="L13" s="63" t="s">
+      <c r="K13" s="61"/>
+      <c r="L13" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="M13" s="63" t="s">
+      <c r="M13" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N13" s="63" t="s">
+      <c r="N13" s="60" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1693,7 +1693,7 @@
       <c r="F14" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="76"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="9" t="s">
         <v>21</v>
       </c>
@@ -1706,9 +1706,9 @@
       <c r="K14" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="63"/>
-      <c r="M14" s="76"/>
-      <c r="N14" s="63"/>
+      <c r="L14" s="60"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="60"/>
     </row>
     <row r="15" spans="1:17" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6">
@@ -2483,7 +2483,7 @@
       <c r="A41" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B41" s="59" t="s">
+      <c r="B41" s="77" t="s">
         <v>112</v>
       </c>
       <c r="C41" s="58" t="s">
@@ -2519,7 +2519,7 @@
     </row>
     <row r="42" spans="1:14" ht="93.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="58"/>
-      <c r="B42" s="60"/>
+      <c r="B42" s="78"/>
       <c r="C42" s="58"/>
       <c r="D42" s="58"/>
       <c r="E42" s="58"/>
@@ -2625,7 +2625,7 @@
       <c r="A46" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="B46" s="59" t="s">
+      <c r="B46" s="77" t="s">
         <v>112</v>
       </c>
       <c r="C46" s="58" t="s">
@@ -2661,7 +2661,7 @@
     </row>
     <row r="47" spans="1:14" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="58"/>
-      <c r="B47" s="60"/>
+      <c r="B47" s="78"/>
       <c r="C47" s="58"/>
       <c r="D47" s="58"/>
       <c r="E47" s="58"/>
@@ -2693,7 +2693,7 @@
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
       <c r="G48" s="21" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>38</v>
@@ -2713,13 +2713,13 @@
     </row>
     <row r="49" spans="1:14" ht="69.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="38" t="s">
         <v>112</v>
       </c>
       <c r="C49" s="38" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D49" s="38" t="s">
         <v>32</v>
@@ -2855,9 +2855,9 @@
     </row>
     <row r="54" spans="1:14" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B54" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B54" s="77" t="s">
         <v>112</v>
       </c>
       <c r="C54" s="58" t="s">
@@ -2893,7 +2893,7 @@
     </row>
     <row r="55" spans="1:14" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58"/>
-      <c r="B55" s="60"/>
+      <c r="B55" s="78"/>
       <c r="C55" s="58"/>
       <c r="D55" s="58"/>
       <c r="E55" s="58"/>
@@ -2971,13 +2971,13 @@
     </row>
     <row r="58" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A58" s="58" t="s">
-        <v>120</v>
-      </c>
-      <c r="B58" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="77" t="s">
         <v>112</v>
       </c>
       <c r="C58" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D58" s="58" t="s">
         <v>32</v>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="59" spans="1:14" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A59" s="58"/>
-      <c r="B59" s="60"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="58"/>
       <c r="D59" s="58"/>
       <c r="E59" s="58"/>
@@ -3041,7 +3041,7 @@
       <c r="E60" s="11"/>
       <c r="F60" s="11"/>
       <c r="G60" s="40" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H60" s="13" t="s">
         <v>38</v>
@@ -3087,62 +3087,14 @@
     </row>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="K4:L7"/>
-    <mergeCell ref="B12:D13"/>
-    <mergeCell ref="E12:F13"/>
-    <mergeCell ref="G12:N12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A1:N1"/>
-    <mergeCell ref="A12:A14"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:N10"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D4:J4"/>
-    <mergeCell ref="D6:J6"/>
-    <mergeCell ref="D7:J7"/>
-    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
     <mergeCell ref="B58:B59"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="F41:F42"/>
@@ -3159,14 +3111,62 @@
     <mergeCell ref="B46:B47"/>
     <mergeCell ref="C46:C47"/>
     <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:N10"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D4:J4"/>
+    <mergeCell ref="D6:J6"/>
+    <mergeCell ref="D7:J7"/>
+    <mergeCell ref="M4:N7"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="K4:L7"/>
+    <mergeCell ref="B12:D13"/>
+    <mergeCell ref="E12:F13"/>
+    <mergeCell ref="G12:N12"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="L13:L14"/>
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="29" orientation="portrait" r:id="rId1"/>
@@ -3237,17 +3237,17 @@
         <v>15</v>
       </c>
       <c r="F4" s="85"/>
-      <c r="G4" s="63" t="s">
+      <c r="G4" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63" t="s">
+      <c r="H4" s="60"/>
+      <c r="I4" s="60"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="60" t="s">
         <v>67</v>
       </c>
     </row>
@@ -3258,27 +3258,27 @@
       <c r="D5" s="88"/>
       <c r="E5" s="86"/>
       <c r="F5" s="88"/>
-      <c r="G5" s="63" t="s">
+      <c r="G5" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="H5" s="63" t="s">
+      <c r="H5" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="I5" s="63"/>
-      <c r="J5" s="63" t="s">
+      <c r="I5" s="60"/>
+      <c r="J5" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="K5" s="63"/>
-      <c r="L5" s="63" t="s">
+      <c r="K5" s="60"/>
+      <c r="L5" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="M5" s="63" t="s">
+      <c r="M5" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="63" t="s">
+      <c r="N5" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="O5" s="63"/>
+      <c r="O5" s="60"/>
     </row>
     <row r="6" spans="1:15" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="82"/>
@@ -3287,7 +3287,7 @@
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
-      <c r="G6" s="63"/>
+      <c r="G6" s="60"/>
       <c r="H6" s="9" t="s">
         <v>63</v>
       </c>
@@ -3300,10 +3300,10 @@
       <c r="K6" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="L6" s="63"/>
-      <c r="M6" s="63"/>
-      <c r="N6" s="63"/>
-      <c r="O6" s="63"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+      <c r="O6" s="60"/>
     </row>
     <row r="7" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
@@ -3666,13 +3666,13 @@
     </row>
     <row r="16" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B16" s="21" t="s">
         <v>112</v>
       </c>
       <c r="C16" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D16" s="21" t="s">
         <v>68</v>
@@ -3705,7 +3705,7 @@
     </row>
     <row r="17" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A17" s="21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>112</v>
@@ -3744,13 +3744,13 @@
     </row>
     <row r="18" spans="1:15" ht="112.5" x14ac:dyDescent="0.25">
       <c r="A18" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>112</v>
       </c>
       <c r="C18" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D18" s="41" t="s">
         <v>68</v>
@@ -17156,22 +17156,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="64" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
     </row>
     <row r="2" spans="1:14" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G2" s="29" t="s">
@@ -17207,11 +17207,11 @@
       <c r="N5" s="92"/>
     </row>
     <row r="6" spans="1:14" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+      <c r="A6" s="64" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="64"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="30"/>
       <c r="E6" s="30"/>
       <c r="F6" s="30"/>
@@ -17288,16 +17288,16 @@
         <v>78</v>
       </c>
       <c r="F12" s="85"/>
-      <c r="G12" s="63" t="s">
+      <c r="G12" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-      <c r="L12" s="63"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="63"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="60"/>
+      <c r="J12" s="60"/>
+      <c r="K12" s="60"/>
+      <c r="L12" s="60"/>
+      <c r="M12" s="60"/>
+      <c r="N12" s="60"/>
     </row>
     <row r="13" spans="1:14" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="81"/>
@@ -17462,6 +17462,19 @@
     <row r="20" spans="1:14" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="M13:M14"/>
+    <mergeCell ref="N13:N14"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="K4:M7"/>
@@ -17478,19 +17491,6 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="L13:L14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="N13:N14"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -17561,12 +17561,12 @@
       <c r="G4" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="96"/>
-      <c r="I4" s="96"/>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
+      <c r="H4" s="101"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
       <c r="N4" s="95"/>
       <c r="O4" s="80" t="s">
         <v>83</v>
@@ -17746,45 +17746,45 @@
     <row r="14" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="98" t="s">
+      <c r="A17" s="100" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="99" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99" t="s">
+      <c r="E17" s="96"/>
+      <c r="F17" s="96"/>
+      <c r="G17" s="96"/>
+      <c r="H17" s="96"/>
+      <c r="I17" s="96"/>
+      <c r="J17" s="96"/>
+      <c r="K17" s="96" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="99"/>
-      <c r="M17" s="99"/>
+      <c r="L17" s="96"/>
+      <c r="M17" s="96"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
     </row>
     <row r="18" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="100" t="s">
+      <c r="D18" s="97" t="s">
         <v>86</v>
       </c>
-      <c r="E18" s="100"/>
-      <c r="F18" s="100"/>
-      <c r="G18" s="100" t="s">
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="97" t="s">
         <v>87</v>
       </c>
-      <c r="H18" s="100"/>
-      <c r="I18" s="100"/>
-      <c r="J18" s="100"/>
-      <c r="K18" s="101" t="s">
+      <c r="H18" s="97"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="98" t="s">
         <v>88</v>
       </c>
-      <c r="L18" s="101"/>
-      <c r="M18" s="101"/>
+      <c r="L18" s="98"/>
+      <c r="M18" s="98"/>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
     </row>
@@ -17795,34 +17795,14 @@
       <c r="C20" s="30"/>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+      <c r="A21" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="97"/>
-      <c r="C21" s="97"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K17:M17"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B10:B11"/>
     <mergeCell ref="A2:O2"/>
     <mergeCell ref="A4:A6"/>
     <mergeCell ref="B4:D5"/>
@@ -17835,6 +17815,26 @@
     <mergeCell ref="L5:L6"/>
     <mergeCell ref="M5:M6"/>
     <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="K18:M18"/>
+    <mergeCell ref="K17:M17"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
